--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23025" windowHeight="9360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,9 @@
     <t>买家已退货</t>
   </si>
   <si>
+    <t>付款状态</t>
+  </si>
+  <si>
     <t>下单日期</t>
   </si>
   <si>
@@ -220,9 +223,6 @@
   </si>
   <si>
     <t>orderList(json数组)</t>
-  </si>
-  <si>
-    <t>付款状态</t>
   </si>
   <si>
     <t>standardId</t>
@@ -652,6 +652,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -666,44 +773,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -712,77 +781,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,19 +845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,73 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +917,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,31 +989,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,15 +1012,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1054,21 +1045,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1095,11 +1071,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,10 +1132,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,121 +1144,121 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1666,10 +1666,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2107,18 +2107,18 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
@@ -2126,13 +2126,9 @@
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="12">
-        <v>123</v>
-      </c>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7"/>
@@ -2145,18 +2141,22 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="7"/>
@@ -2170,15 +2170,15 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="9"/>
-      <c r="M17" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
+      <c r="P17" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
@@ -2194,21 +2194,17 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12">
-        <v>111</v>
-      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="7"/>
@@ -2222,20 +2218,20 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2250,19 +2246,21 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+      <c r="P20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12">
+        <v>112</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="7"/>
@@ -2270,21 +2268,23 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
@@ -2300,21 +2300,17 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12">
-        <v>10</v>
-      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="7"/>
@@ -2328,47 +2324,51 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:18">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:18">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2384,6 +2384,13 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
+      <c r="P25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" s="6"/>
@@ -2606,10 +2613,22 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" ht="14.25" spans="16:18">
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+    <row r="39" ht="14.25" spans="1:15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
     </row>
     <row r="40" ht="14.25" spans="16:18">
       <c r="P40" s="6"/>
@@ -2691,10 +2710,10 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="81" ht="14.25" spans="16:18">
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
+    <row r="56" ht="14.25" spans="16:18">
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
     </row>
     <row r="82" ht="14.25" spans="16:18">
       <c r="P82" s="6"/>
@@ -2856,8 +2875,13 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
     </row>
+    <row r="114" ht="14.25" spans="16:18">
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="94">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -2916,18 +2940,16 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="K17:O17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:L18"/>
@@ -2940,16 +2962,20 @@
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:O20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:O23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="P20:R21"/>
+    <mergeCell ref="P17:R18"/>
+    <mergeCell ref="P21:R22"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2960,10 +2986,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:R44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3586,18 +3612,18 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4" t="s">
@@ -3605,13 +3631,9 @@
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-      <c r="R35" s="12">
-        <v>123</v>
-      </c>
+      <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="7"/>
@@ -3624,18 +3646,22 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="12">
+        <v>123</v>
+      </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="7"/>
@@ -3649,15 +3675,15 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L37" s="9"/>
-      <c r="M37" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
+      <c r="P37" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
     </row>
@@ -3673,21 +3699,17 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12">
-        <v>111</v>
-      </c>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="7"/>
@@ -3701,20 +3723,20 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3723,25 +3745,27 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
+      <c r="P40" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12">
+        <v>112</v>
+      </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="7"/>
@@ -3749,21 +3773,23 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="10"/>
+      <c r="P41" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
@@ -3779,21 +3805,17 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12">
-        <v>10</v>
-      </c>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="7"/>
@@ -3807,42 +3829,51 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="12"/>
       <c r="R43" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="1:18">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:18">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -3853,6 +3884,13 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
+      <c r="P45" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" ht="14.25" spans="1:15">
       <c r="A46" s="6"/>
@@ -3866,8 +3904,20 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
+    <row r="47" ht="14.25" spans="1:15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="127">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3952,18 +4002,16 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:O34"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:J35"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:Q35"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:Q36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="K37:O37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="K38:L38"/>
@@ -3988,11 +4036,15 @@
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:O43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:O44"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="P21:R22"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="P40:R41"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P41:R42"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4003,10 +4055,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="K16" sqref="K16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4463,7 +4515,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="12">
@@ -4471,18 +4523,18 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
@@ -4490,11 +4542,9 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="7"/>
@@ -4502,19 +4552,23 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
@@ -4530,21 +4584,15 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12">
-        <v>111</v>
-      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="7"/>
@@ -4558,20 +4606,20 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -4586,19 +4634,21 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+      <c r="P20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12">
+        <v>112</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="7"/>
@@ -4612,15 +4662,17 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
@@ -4630,27 +4682,23 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12">
-        <v>10</v>
-      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="7"/>
@@ -4664,20 +4712,20 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4692,38 +4740,49 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" s="6"/>
@@ -4759,7 +4818,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" ht="14.25" spans="1:18">
+    <row r="28" ht="14.25" spans="1:15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4775,9 +4834,6 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
     </row>
     <row r="29" ht="14.25" spans="1:18">
       <c r="A29" s="6"/>
@@ -5099,8 +5155,28 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
     </row>
+    <row r="45" ht="14.25" spans="1:18">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="94">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5164,13 +5240,11 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="K18:O18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:L19"/>
@@ -5183,16 +5257,20 @@
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:O21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:O24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="P20:R21"/>
+    <mergeCell ref="P17:R18"/>
+    <mergeCell ref="P21:R22"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5205,7 +5283,7 @@
   <sheetPr/>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -6445,10 +6523,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P72" sqref="P72:R95"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76:L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8252,18 +8330,18 @@
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4" t="s">
@@ -8271,13 +8349,9 @@
       </c>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
-      <c r="P86" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
-      <c r="R86" s="12">
-        <v>123</v>
-      </c>
+      <c r="R86" s="12"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="7"/>
@@ -8290,18 +8364,22 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="9" t="s">
+      <c r="K87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="12">
+        <v>123</v>
+      </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="7"/>
@@ -8315,15 +8393,15 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L88" s="9"/>
-      <c r="M88" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
-      <c r="P88" s="10"/>
+      <c r="P88" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="Q88" s="10"/>
       <c r="R88" s="10"/>
     </row>
@@ -8339,21 +8417,17 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L89" s="9"/>
       <c r="M89" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
-      <c r="P89" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12">
-        <v>111</v>
-      </c>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="7"/>
@@ -8367,20 +8441,20 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L90" s="9"/>
       <c r="M90" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q90" s="12"/>
       <c r="R90" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -8395,19 +8469,21 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
-      <c r="P91" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
+      <c r="P91" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12">
+        <v>112</v>
+      </c>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="7"/>
@@ -8415,21 +8491,23 @@
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L92" s="9"/>
       <c r="M92" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
-      <c r="P92" s="10"/>
+      <c r="P92" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="Q92" s="10"/>
       <c r="R92" s="10"/>
     </row>
@@ -8445,21 +8523,17 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L93" s="9"/>
       <c r="M93" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
-      <c r="P93" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12">
-        <v>10</v>
-      </c>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="7"/>
@@ -8473,47 +8547,51 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L94" s="9"/>
       <c r="M94" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
       <c r="P94" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" spans="1:18">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
       <c r="P95" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q95" s="12"/>
       <c r="R95" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" spans="1:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="1:18">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -8529,6 +8607,13 @@
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
+      <c r="P96" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12">
+        <v>30</v>
+      </c>
     </row>
     <row r="97" ht="14.25" spans="1:15">
       <c r="A97" s="6"/>
@@ -8751,8 +8836,25 @@
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
     </row>
+    <row r="110" ht="14.25" spans="1:15">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="178">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -8891,18 +8993,16 @@
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="M85:O85"/>
     <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:J86"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="M86:O86"/>
-    <mergeCell ref="P86:Q86"/>
     <mergeCell ref="F87:G87"/>
     <mergeCell ref="H87:J87"/>
-    <mergeCell ref="K87:O87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:Q87"/>
     <mergeCell ref="F88:G88"/>
     <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="K88:O88"/>
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="H89:J89"/>
     <mergeCell ref="K89:L89"/>
@@ -8915,20 +9015,24 @@
     <mergeCell ref="H91:J91"/>
     <mergeCell ref="K91:L91"/>
     <mergeCell ref="M91:O91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="M92:O92"/>
     <mergeCell ref="K93:L93"/>
     <mergeCell ref="M93:O93"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="M94:O94"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M95:O95"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A18:O19"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A53:O54"/>
     <mergeCell ref="A72:O73"/>
     <mergeCell ref="P72:R73"/>
-    <mergeCell ref="P87:R88"/>
-    <mergeCell ref="P91:R92"/>
+    <mergeCell ref="P88:R89"/>
+    <mergeCell ref="P92:R93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -8938,10 +9042,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T289"/>
+  <dimension ref="A1:T292"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P92" sqref="P92:R115"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105:O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -9356,7 +9460,7 @@
     </row>
     <row r="15" s="6" customFormat="1" customHeight="1" spans="16:18">
       <c r="P15" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="12">
@@ -9365,7 +9469,7 @@
     </row>
     <row r="16" s="6" customFormat="1" customHeight="1" spans="16:18">
       <c r="P16" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -9718,7 +9822,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
@@ -9738,13 +9842,15 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="K41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A42" s="7"/>
@@ -9758,12 +9864,10 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L42" s="9"/>
-      <c r="M42" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
     </row>
@@ -9779,11 +9883,11 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
@@ -9800,11 +9904,11 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
@@ -9815,17 +9919,17 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
@@ -9842,11 +9946,11 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -9863,11 +9967,11 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -9884,36 +9988,40 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
     </row>
-    <row r="58" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A58" s="1" t="s">
+    <row r="49" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="59" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -9930,131 +10038,123 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2" t="s">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A61" s="3" t="s">
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A62" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F62" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
     <row r="63" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
     </row>
@@ -10064,17 +10164,21 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -10091,11 +10195,11 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -10112,11 +10216,11 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -10133,11 +10237,11 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -10154,11 +10258,11 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -10175,11 +10279,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -10196,11 +10300,11 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -10217,11 +10321,11 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -10238,11 +10342,11 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -10258,13 +10362,15 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
+      <c r="K74" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
     </row>
     <row r="75" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A75" s="7"/>
@@ -10278,12 +10384,10 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L75" s="9"/>
-      <c r="M75" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
     </row>
@@ -10299,11 +10403,11 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
@@ -10320,11 +10424,11 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
@@ -10335,17 +10439,17 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
       <c r="K78" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
@@ -10362,11 +10466,11 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
@@ -10383,17 +10487,35 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
     </row>
-    <row r="85" s="6" customFormat="1" customHeight="1" spans="20:20">
-      <c r="T85" s="14"/>
+    <row r="81" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="20:20">
       <c r="T86" s="14"/>
@@ -10410,35 +10532,16 @@
     <row r="90" s="6" customFormat="1" customHeight="1" spans="20:20">
       <c r="T90" s="14"/>
     </row>
-    <row r="91" s="6" customFormat="1" customHeight="1" spans="17:17">
-      <c r="Q91" s="15"/>
-    </row>
-    <row r="92" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A92" s="1" t="s">
+    <row r="91" s="6" customFormat="1" customHeight="1" spans="20:20">
+      <c r="T91" s="14"/>
+    </row>
+    <row r="92" s="6" customFormat="1" customHeight="1" spans="17:17">
+      <c r="Q92" s="15"/>
+    </row>
+    <row r="93" s="6" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-    </row>
-    <row r="93" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -10453,110 +10556,100 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="10"/>
+      <c r="P93" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="Q93" s="10"/>
       <c r="R93" s="10"/>
     </row>
     <row r="94" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+    </row>
+    <row r="95" s="6" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2" t="s">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2" t="s">
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="11" t="s">
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A95" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="Q95" s="11"/>
       <c r="R95" s="12">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A96" s="3"/>
+      <c r="A96" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F96" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q96" s="11"/>
       <c r="R96" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10566,59 +10659,61 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
+      <c r="K97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
       <c r="P97" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q97" s="11"/>
       <c r="R97" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
+      <c r="M98" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q98" s="11"/>
       <c r="R98" s="12">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10628,29 +10723,27 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q99" s="11"/>
       <c r="R99" s="12">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10660,29 +10753,29 @@
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q100" s="11"/>
       <c r="R100" s="12">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10692,29 +10785,29 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q101" s="11"/>
       <c r="R101" s="12">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10724,29 +10817,29 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q102" s="11"/>
       <c r="R102" s="12">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10756,88 +10849,90 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q103" s="11"/>
       <c r="R103" s="12">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q104" s="11"/>
       <c r="R104" s="12">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="4"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="H105" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="K105" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="11"/>
       <c r="Q105" s="11"/>
-      <c r="R105" s="12">
-        <v>122</v>
-      </c>
+      <c r="R105" s="12"/>
     </row>
     <row r="106" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A106" s="7"/>
@@ -10850,21 +10945,21 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
+      <c r="K106" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
       <c r="P106" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q106" s="11"/>
       <c r="R106" s="12">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10879,19 +10974,19 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L107" s="9"/>
-      <c r="M107" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
-      <c r="P107" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q107" s="10"/>
-      <c r="R107" s="10"/>
+      <c r="P107" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="12">
+        <v>122</v>
+      </c>
     </row>
     <row r="108" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A108" s="7"/>
@@ -10905,17 +11000,21 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L108" s="9"/>
       <c r="M108" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="10"/>
+      <c r="P108" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="12">
+        <v>123</v>
+      </c>
     </row>
     <row r="109" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A109" s="7"/>
@@ -10929,21 +11028,19 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
-      <c r="P109" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12">
-        <v>111</v>
-      </c>
+      <c r="P109" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
     </row>
     <row r="110" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A110" s="7"/>
@@ -10951,27 +11048,23 @@
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
       <c r="K110" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L110" s="9"/>
       <c r="M110" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
-      <c r="P110" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12">
-        <v>112</v>
-      </c>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
     </row>
     <row r="111" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A111" s="7"/>
@@ -10979,25 +11072,27 @@
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
       <c r="K111" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L111" s="9"/>
       <c r="M111" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
-      <c r="P111" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q111" s="10"/>
-      <c r="R111" s="10"/>
+      <c r="P111" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12">
+        <v>111</v>
+      </c>
     </row>
     <row r="112" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A112" s="7"/>
@@ -11011,378 +11106,390 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L112" s="9"/>
       <c r="M112" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
-      <c r="P112" s="10"/>
-      <c r="Q112" s="10"/>
-      <c r="R112" s="10"/>
-    </row>
-    <row r="113" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P113" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P114" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12">
-        <v>20</v>
-      </c>
+      <c r="P112" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" s="6" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+    </row>
+    <row r="114" s="6" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
     </row>
     <row r="115" s="6" customFormat="1" customHeight="1" spans="16:18">
       <c r="P115" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q115" s="12"/>
       <c r="R115" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" s="6" customFormat="1" customHeight="1" spans="16:18">
+      <c r="P116" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" s="6" customFormat="1" customHeight="1" spans="16:18">
+      <c r="P117" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="126" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A126" s="13" t="s">
+    <row r="128" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A128" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
-      <c r="O126" s="13"/>
-    </row>
-    <row r="127" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
-      <c r="O127" s="13"/>
-    </row>
-    <row r="128" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A128" s="2" t="s">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="13"/>
+    </row>
+    <row r="129" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="13"/>
+    </row>
+    <row r="130" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2" t="s">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2" t="s">
+      <c r="G130" s="2"/>
+      <c r="H130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2" t="s">
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A129" s="3" t="s">
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A131" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-    </row>
-    <row r="131" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F131" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
+      <c r="K131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
     </row>
     <row r="132" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4" t="s">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+    </row>
+    <row r="133" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+    </row>
+    <row r="134" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4" t="s">
+      <c r="G134" s="4"/>
+      <c r="H134" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-    </row>
-    <row r="146" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A146" s="1" t="s">
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+    </row>
+    <row r="148" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A148" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-    </row>
-    <row r="147" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-    </row>
-    <row r="148" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A148" s="2" t="s">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row r="149" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2" t="s">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2" t="s">
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-    </row>
-    <row r="149" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A149" s="3" t="s">
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A151" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-    </row>
-    <row r="150" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
-    </row>
-    <row r="151" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F151" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
+      <c r="K151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
     </row>
     <row r="152" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
     </row>
     <row r="153" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
@@ -11395,13 +11502,15 @@
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
-      <c r="F154" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
+      <c r="F154" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
@@ -11414,15 +11523,15 @@
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
+      <c r="F155" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -11436,12 +11545,10 @@
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G156" s="9"/>
-      <c r="H156" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="H156" s="9"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="4"/>
@@ -11450,461 +11557,455 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="168" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A168" s="1" t="s">
+    <row r="157" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+    </row>
+    <row r="158" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+    </row>
+    <row r="170" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A170" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-    </row>
-    <row r="169" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-    </row>
-    <row r="170" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A170" s="2" t="s">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2" t="s">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2" t="s">
+      <c r="G172" s="2"/>
+      <c r="H172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2" t="s">
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-    </row>
-    <row r="171" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A171" s="3" t="s">
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+    </row>
+    <row r="173" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A173" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L171" s="3"/>
-      <c r="M171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N171" s="3"/>
-      <c r="O171" s="3"/>
-    </row>
-    <row r="172" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N172" s="3"/>
-      <c r="O172" s="3"/>
-    </row>
-    <row r="173" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="E173" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F173" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
+      <c r="K173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
     </row>
     <row r="174" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4" t="s">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+    </row>
+    <row r="175" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+    </row>
+    <row r="176" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4" t="s">
+      <c r="G176" s="4"/>
+      <c r="H176" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-    </row>
-    <row r="189" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A189" s="1" t="s">
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+    </row>
+    <row r="191" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A191" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-    </row>
-    <row r="190" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-    </row>
-    <row r="191" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A191" s="2" t="s">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+    </row>
+    <row r="192" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A193" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2" t="s">
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="F193" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2" t="s">
+      <c r="G193" s="2"/>
+      <c r="H193" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2" t="s">
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-    </row>
-    <row r="192" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A192" s="3" t="s">
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+    </row>
+    <row r="194" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A194" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N192" s="3"/>
-      <c r="O192" s="3"/>
-    </row>
-    <row r="193" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
-    </row>
-    <row r="194" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+      <c r="E194" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F194" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-      <c r="M194" s="4"/>
-      <c r="N194" s="4"/>
-      <c r="O194" s="4"/>
+      <c r="K194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
     </row>
     <row r="195" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4" t="s">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+    </row>
+    <row r="196" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+    </row>
+    <row r="197" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G195" s="4"/>
-      <c r="H195" s="4" t="s">
+      <c r="G197" s="4"/>
+      <c r="H197" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="4"/>
-    </row>
-    <row r="208" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A208" s="1" t="s">
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+    </row>
+    <row r="210" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A210" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-    </row>
-    <row r="209" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-    </row>
-    <row r="210" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A210" s="2" t="s">
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A212" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2" t="s">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="F212" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2" t="s">
+      <c r="G212" s="2"/>
+      <c r="H212" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2" t="s">
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-    </row>
-    <row r="211" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A211" s="3" t="s">
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+    </row>
+    <row r="213" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A213" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3" t="s">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="F213" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-    </row>
-    <row r="212" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A212" s="16"/>
-      <c r="B212" s="16"/>
-      <c r="C212" s="16"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-    </row>
-    <row r="213" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A213" s="16"/>
-      <c r="B213" s="16"/>
-      <c r="C213" s="16"/>
-      <c r="D213" s="16"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
+      <c r="M213" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
     </row>
@@ -11915,20 +12016,20 @@
       <c r="D214" s="16"/>
       <c r="E214" s="16"/>
       <c r="F214" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="L214" s="3"/>
       <c r="M214" s="3" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="N214" s="3"/>
       <c r="O214" s="3"/>
@@ -11940,21 +12041,19 @@
       <c r="D215" s="16"/>
       <c r="E215" s="16"/>
       <c r="F215" s="3" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="3" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="L215" s="3"/>
-      <c r="M215" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="M215" s="3"/>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
     </row>
@@ -11964,17 +12063,21 @@
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
       <c r="E216" s="16"/>
-      <c r="F216" s="16"/>
-      <c r="G216" s="16"/>
-      <c r="H216" s="16"/>
-      <c r="I216" s="16"/>
-      <c r="J216" s="16"/>
+      <c r="F216" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
       <c r="K216" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L216" s="3"/>
       <c r="M216" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
@@ -11985,17 +12088,21 @@
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
       <c r="E217" s="16"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="16"/>
-      <c r="I217" s="16"/>
-      <c r="J217" s="16"/>
+      <c r="F217" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
       <c r="K217" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L217" s="3"/>
       <c r="M217" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
@@ -12012,11 +12119,11 @@
       <c r="I218" s="16"/>
       <c r="J218" s="16"/>
       <c r="K218" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
@@ -12033,11 +12140,11 @@
       <c r="I219" s="16"/>
       <c r="J219" s="16"/>
       <c r="K219" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -12054,202 +12161,194 @@
       <c r="I220" s="16"/>
       <c r="J220" s="16"/>
       <c r="K220" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L220" s="3"/>
       <c r="M220" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="236" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A236" s="1" t="s">
+    <row r="221" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="16"/>
+      <c r="I221" s="16"/>
+      <c r="J221" s="16"/>
+      <c r="K221" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+    </row>
+    <row r="222" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A222" s="16"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="16"/>
+      <c r="J222" s="16"/>
+      <c r="K222" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+    </row>
+    <row r="238" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A238" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-    </row>
-    <row r="237" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-    </row>
-    <row r="238" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A238" s="2" t="s">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+    </row>
+    <row r="240" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A240" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2" t="s">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F238" s="2" t="s">
+      <c r="F240" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2" t="s">
+      <c r="G240" s="2"/>
+      <c r="H240" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2" t="s">
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
-    </row>
-    <row r="239" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A239" s="3" t="s">
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+    </row>
+    <row r="241" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A241" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L239" s="3"/>
-      <c r="M239" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N239" s="3"/>
-      <c r="O239" s="3"/>
-    </row>
-    <row r="240" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N240" s="3"/>
-      <c r="O240" s="3"/>
-    </row>
-    <row r="241" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+      <c r="E241" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F241" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="4" t="s">
+      <c r="K241" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+    </row>
+    <row r="242" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+    </row>
+    <row r="243" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L241" s="4"/>
-      <c r="M241" s="4"/>
-      <c r="N241" s="4"/>
-      <c r="O241" s="4"/>
-    </row>
-    <row r="242" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G242" s="4"/>
-      <c r="H242" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I242" s="4"/>
-      <c r="J242" s="4"/>
-      <c r="K242" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L242" s="4"/>
-      <c r="M242" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N242" s="4"/>
-      <c r="O242" s="4"/>
-    </row>
-    <row r="243" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="4"/>
-      <c r="F243" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G243" s="4"/>
-      <c r="H243" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I243" s="4"/>
-      <c r="J243" s="4"/>
-      <c r="K243" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="M243" s="4"/>
       <c r="N243" s="4"/>
       <c r="O243" s="4"/>
     </row>
@@ -12260,62 +12359,70 @@
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L244" s="4"/>
       <c r="M244" s="4" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N244" s="4"/>
       <c r="O244" s="4"/>
     </row>
     <row r="245" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="7"/>
-      <c r="F245" s="4"/>
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G245" s="4"/>
-      <c r="H245" s="4"/>
+      <c r="H245" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
       <c r="K245" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L245" s="4"/>
       <c r="M245" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N245" s="4"/>
       <c r="O245" s="4"/>
     </row>
     <row r="246" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="7"/>
-      <c r="E246" s="7"/>
-      <c r="F246" s="4"/>
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="G246" s="4"/>
-      <c r="H246" s="4"/>
+      <c r="H246" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
       <c r="K246" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L246" s="4"/>
       <c r="M246" s="4" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="N246" s="4"/>
       <c r="O246" s="4"/>
@@ -12331,13 +12438,15 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="K247" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L247" s="9"/>
-      <c r="M247" s="9"/>
-      <c r="N247" s="9"/>
-      <c r="O247" s="9"/>
+      <c r="K247" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N247" s="4"/>
+      <c r="O247" s="4"/>
     </row>
     <row r="248" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A248" s="7"/>
@@ -12350,15 +12459,15 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L248" s="9"/>
-      <c r="M248" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N248" s="9"/>
-      <c r="O248" s="9"/>
+      <c r="K248" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L248" s="4"/>
+      <c r="M248" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N248" s="4"/>
+      <c r="O248" s="4"/>
     </row>
     <row r="249" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A249" s="7"/>
@@ -12371,15 +12480,15 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="K249" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L249" s="9"/>
-      <c r="M249" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N249" s="9"/>
-      <c r="O249" s="9"/>
+      <c r="K249" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L249" s="4"/>
+      <c r="M249" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N249" s="4"/>
+      <c r="O249" s="4"/>
     </row>
     <row r="250" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A250" s="7"/>
@@ -12393,12 +12502,10 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
       <c r="K250" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L250" s="9"/>
-      <c r="M250" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="M250" s="9"/>
       <c r="N250" s="9"/>
       <c r="O250" s="9"/>
     </row>
@@ -12414,11 +12521,11 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
       <c r="K251" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L251" s="9"/>
       <c r="M251" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N251" s="9"/>
       <c r="O251" s="9"/>
@@ -12435,11 +12542,11 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
       <c r="K252" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L252" s="9"/>
       <c r="M252" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N252" s="9"/>
       <c r="O252" s="9"/>
@@ -12450,17 +12557,17 @@
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="7"/>
-      <c r="I253" s="7"/>
-      <c r="J253" s="7"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
       <c r="K253" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L253" s="9"/>
       <c r="M253" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N253" s="9"/>
       <c r="O253" s="9"/>
@@ -12471,71 +12578,83 @@
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
-      <c r="F254" s="7"/>
-      <c r="G254" s="7"/>
-      <c r="H254" s="7"/>
-      <c r="I254" s="7"/>
-      <c r="J254" s="7"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
       <c r="K254" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L254" s="9"/>
       <c r="M254" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="N254" s="9"/>
       <c r="O254" s="9"/>
     </row>
-    <row r="271" customHeight="1" spans="1:15">
-      <c r="A271"/>
-      <c r="B271"/>
-      <c r="C271"/>
-      <c r="D271"/>
-      <c r="E271"/>
-      <c r="F271"/>
-      <c r="G271"/>
-      <c r="H271"/>
-      <c r="I271"/>
-      <c r="J271"/>
-      <c r="K271"/>
-      <c r="L271"/>
-      <c r="M271"/>
-      <c r="N271"/>
-      <c r="O271"/>
-    </row>
-    <row r="272" customHeight="1" spans="1:15">
-      <c r="A272"/>
-      <c r="B272"/>
-      <c r="C272"/>
-      <c r="D272"/>
-      <c r="E272"/>
-      <c r="F272"/>
-      <c r="G272"/>
-      <c r="H272"/>
-      <c r="I272"/>
-      <c r="J272"/>
-      <c r="K272"/>
-      <c r="L272"/>
-      <c r="M272"/>
-      <c r="N272"/>
-      <c r="O272"/>
-    </row>
-    <row r="273" customHeight="1" spans="1:15">
-      <c r="A273"/>
-      <c r="B273"/>
-      <c r="C273"/>
-      <c r="D273"/>
-      <c r="E273"/>
-      <c r="F273"/>
-      <c r="G273"/>
-      <c r="H273"/>
-      <c r="I273"/>
-      <c r="J273"/>
-      <c r="K273"/>
-      <c r="L273"/>
-      <c r="M273"/>
-      <c r="N273"/>
-      <c r="O273"/>
+    <row r="255" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A255" s="7"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="K255" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L255" s="9"/>
+      <c r="M255" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N255" s="9"/>
+      <c r="O255" s="9"/>
+    </row>
+    <row r="256" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A256" s="7"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7"/>
+      <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
+      <c r="K256" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L256" s="9"/>
+      <c r="M256" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N256" s="9"/>
+      <c r="O256" s="9"/>
+    </row>
+    <row r="257" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A257" s="7"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="7"/>
+      <c r="H257" s="7"/>
+      <c r="I257" s="7"/>
+      <c r="J257" s="7"/>
+      <c r="K257" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L257" s="9"/>
+      <c r="M257" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N257" s="9"/>
+      <c r="O257" s="9"/>
     </row>
     <row r="274" customHeight="1" spans="1:15">
       <c r="A274"/>
@@ -12809,8 +12928,59 @@
       <c r="N289"/>
       <c r="O289"/>
     </row>
+    <row r="290" customHeight="1" spans="1:15">
+      <c r="A290"/>
+      <c r="B290"/>
+      <c r="C290"/>
+      <c r="D290"/>
+      <c r="E290"/>
+      <c r="F290"/>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="N290"/>
+      <c r="O290"/>
+    </row>
+    <row r="291" customHeight="1" spans="1:15">
+      <c r="A291"/>
+      <c r="B291"/>
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+      <c r="F291"/>
+      <c r="G291"/>
+      <c r="H291"/>
+      <c r="I291"/>
+      <c r="J291"/>
+      <c r="K291"/>
+      <c r="L291"/>
+      <c r="M291"/>
+      <c r="N291"/>
+      <c r="O291"/>
+    </row>
+    <row r="292" customHeight="1" spans="1:15">
+      <c r="A292"/>
+      <c r="B292"/>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292"/>
+      <c r="G292"/>
+      <c r="H292"/>
+      <c r="I292"/>
+      <c r="J292"/>
+      <c r="K292"/>
+      <c r="L292"/>
+      <c r="M292"/>
+      <c r="N292"/>
+      <c r="O292"/>
+    </row>
   </sheetData>
-  <mergeCells count="445">
+  <mergeCells count="453">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -12897,14 +13067,12 @@
     <mergeCell ref="M38:O38"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:O39"/>
-    <mergeCell ref="F40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:O40"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="K43:L43"/>
@@ -12913,6 +13081,8 @@
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:O44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="M45:O45"/>
     <mergeCell ref="K46:L46"/>
@@ -12921,26 +13091,26 @@
     <mergeCell ref="M47:O47"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="M48:O48"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:O49"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:J62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:O62"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:O63"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="M65:O65"/>
     <mergeCell ref="K66:L66"/>
@@ -12957,16 +13127,14 @@
     <mergeCell ref="M71:O71"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="M72:O72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="M73:O73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="K74:O74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="K75:O75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="K76:L76"/>
@@ -12975,23 +13143,22 @@
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="M77:O77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="M79:O79"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:O80"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:O94"/>
-    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:O81"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="K95:O95"/>
     <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:D96"/>
     <mergeCell ref="F96:G96"/>
     <mergeCell ref="H96:J96"/>
     <mergeCell ref="K96:L96"/>
@@ -13004,12 +13171,12 @@
     <mergeCell ref="P97:Q97"/>
     <mergeCell ref="F98:G98"/>
     <mergeCell ref="H98:J98"/>
-    <mergeCell ref="K98:O98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:O98"/>
     <mergeCell ref="P98:Q98"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="K99:O99"/>
     <mergeCell ref="P99:Q99"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="H100:J100"/>
@@ -13038,8 +13205,8 @@
     <mergeCell ref="P104:Q104"/>
     <mergeCell ref="F105:G105"/>
     <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:O105"/>
-    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:O105"/>
     <mergeCell ref="F106:G106"/>
     <mergeCell ref="H106:J106"/>
     <mergeCell ref="K106:L106"/>
@@ -13047,139 +13214,144 @@
     <mergeCell ref="P106:Q106"/>
     <mergeCell ref="F107:G107"/>
     <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="K107:O107"/>
+    <mergeCell ref="P107:Q107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="H108:J108"/>
     <mergeCell ref="K108:L108"/>
     <mergeCell ref="M108:O108"/>
+    <mergeCell ref="P108:Q108"/>
     <mergeCell ref="F109:G109"/>
     <mergeCell ref="H109:J109"/>
     <mergeCell ref="K109:L109"/>
     <mergeCell ref="M109:O109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:J110"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="M110:O110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:J111"/>
     <mergeCell ref="K111:L111"/>
     <mergeCell ref="M111:O111"/>
     <mergeCell ref="K112:L112"/>
     <mergeCell ref="M112:O112"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="K128:O128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="A130:D130"/>
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="M130:O130"/>
+    <mergeCell ref="K130:O130"/>
+    <mergeCell ref="A131:D131"/>
     <mergeCell ref="F131:G131"/>
     <mergeCell ref="H131:J131"/>
     <mergeCell ref="K131:L131"/>
     <mergeCell ref="M131:O131"/>
     <mergeCell ref="F132:G132"/>
     <mergeCell ref="H132:J132"/>
-    <mergeCell ref="K132:O132"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:O148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:O149"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:O133"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="K134:O134"/>
+    <mergeCell ref="A150:D150"/>
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="M150:O150"/>
+    <mergeCell ref="K150:O150"/>
+    <mergeCell ref="A151:D151"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="H151:J151"/>
     <mergeCell ref="K151:L151"/>
     <mergeCell ref="M151:O151"/>
     <mergeCell ref="F152:G152"/>
     <mergeCell ref="H152:J152"/>
-    <mergeCell ref="K152:O152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="M152:O152"/>
     <mergeCell ref="F153:G153"/>
     <mergeCell ref="H153:J153"/>
-    <mergeCell ref="K153:O153"/>
-    <mergeCell ref="F154:J154"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:O153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
     <mergeCell ref="K154:O154"/>
     <mergeCell ref="F155:G155"/>
     <mergeCell ref="H155:J155"/>
     <mergeCell ref="K155:O155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="F156:J156"/>
     <mergeCell ref="K156:O156"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:J170"/>
-    <mergeCell ref="K170:O170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="H171:J171"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="M171:O171"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="K157:O157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:O158"/>
+    <mergeCell ref="A172:D172"/>
     <mergeCell ref="F172:G172"/>
     <mergeCell ref="H172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:O172"/>
+    <mergeCell ref="K172:O172"/>
+    <mergeCell ref="A173:D173"/>
     <mergeCell ref="F173:G173"/>
     <mergeCell ref="H173:J173"/>
     <mergeCell ref="K173:L173"/>
     <mergeCell ref="M173:O173"/>
     <mergeCell ref="F174:G174"/>
     <mergeCell ref="H174:J174"/>
-    <mergeCell ref="K174:O174"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="H191:J191"/>
-    <mergeCell ref="K191:O191"/>
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="H192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="M174:O174"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="H176:J176"/>
+    <mergeCell ref="K176:O176"/>
+    <mergeCell ref="A193:D193"/>
     <mergeCell ref="F193:G193"/>
     <mergeCell ref="H193:J193"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="K193:O193"/>
+    <mergeCell ref="A194:D194"/>
     <mergeCell ref="F194:G194"/>
     <mergeCell ref="H194:J194"/>
     <mergeCell ref="K194:L194"/>
     <mergeCell ref="M194:O194"/>
     <mergeCell ref="F195:G195"/>
     <mergeCell ref="H195:J195"/>
-    <mergeCell ref="K195:O195"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="H210:J210"/>
-    <mergeCell ref="K210:O210"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:J211"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:O211"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:O195"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="H196:J196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:O196"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="H197:J197"/>
+    <mergeCell ref="K197:O197"/>
+    <mergeCell ref="A212:D212"/>
     <mergeCell ref="F212:G212"/>
     <mergeCell ref="H212:J212"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="M212:O212"/>
+    <mergeCell ref="K212:O212"/>
+    <mergeCell ref="A213:D213"/>
     <mergeCell ref="F213:G213"/>
     <mergeCell ref="H213:J213"/>
-    <mergeCell ref="K213:O213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="M213:O213"/>
     <mergeCell ref="F214:G214"/>
     <mergeCell ref="H214:J214"/>
     <mergeCell ref="K214:L214"/>
     <mergeCell ref="M214:O214"/>
     <mergeCell ref="F215:G215"/>
     <mergeCell ref="H215:J215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="M215:O215"/>
+    <mergeCell ref="K215:O215"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="H216:J216"/>
     <mergeCell ref="K216:L216"/>
     <mergeCell ref="M216:O216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="H217:J217"/>
     <mergeCell ref="K217:L217"/>
     <mergeCell ref="M217:O217"/>
     <mergeCell ref="K218:L218"/>
@@ -13188,30 +13360,26 @@
     <mergeCell ref="M219:O219"/>
     <mergeCell ref="K220:L220"/>
     <mergeCell ref="M220:O220"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="H238:J238"/>
-    <mergeCell ref="K238:O238"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:J239"/>
-    <mergeCell ref="K239:L239"/>
-    <mergeCell ref="M239:O239"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="M221:O221"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="M222:O222"/>
+    <mergeCell ref="A240:D240"/>
     <mergeCell ref="F240:G240"/>
     <mergeCell ref="H240:J240"/>
-    <mergeCell ref="K240:L240"/>
-    <mergeCell ref="M240:O240"/>
+    <mergeCell ref="K240:O240"/>
+    <mergeCell ref="A241:D241"/>
     <mergeCell ref="F241:G241"/>
     <mergeCell ref="H241:J241"/>
-    <mergeCell ref="K241:O241"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="M241:O241"/>
     <mergeCell ref="F242:G242"/>
     <mergeCell ref="H242:J242"/>
     <mergeCell ref="K242:L242"/>
     <mergeCell ref="M242:O242"/>
     <mergeCell ref="F243:G243"/>
     <mergeCell ref="H243:J243"/>
-    <mergeCell ref="K243:L243"/>
-    <mergeCell ref="M243:O243"/>
+    <mergeCell ref="K243:O243"/>
     <mergeCell ref="F244:G244"/>
     <mergeCell ref="H244:J244"/>
     <mergeCell ref="K244:L244"/>
@@ -13224,14 +13392,18 @@
     <mergeCell ref="H246:J246"/>
     <mergeCell ref="K246:L246"/>
     <mergeCell ref="M246:O246"/>
-    <mergeCell ref="F247:J247"/>
-    <mergeCell ref="K247:O247"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="H247:J247"/>
+    <mergeCell ref="K247:L247"/>
+    <mergeCell ref="M247:O247"/>
     <mergeCell ref="K248:L248"/>
     <mergeCell ref="M248:O248"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="H249:J249"/>
     <mergeCell ref="K249:L249"/>
     <mergeCell ref="M249:O249"/>
-    <mergeCell ref="K250:L250"/>
-    <mergeCell ref="M250:O250"/>
+    <mergeCell ref="F250:J250"/>
+    <mergeCell ref="K250:O250"/>
     <mergeCell ref="K251:L251"/>
     <mergeCell ref="M251:O251"/>
     <mergeCell ref="K252:L252"/>
@@ -13240,22 +13412,28 @@
     <mergeCell ref="M253:O253"/>
     <mergeCell ref="K254:L254"/>
     <mergeCell ref="M254:O254"/>
+    <mergeCell ref="K255:L255"/>
+    <mergeCell ref="M255:O255"/>
+    <mergeCell ref="K256:L256"/>
+    <mergeCell ref="M256:O256"/>
+    <mergeCell ref="K257:L257"/>
+    <mergeCell ref="M257:O257"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
     <mergeCell ref="P16:R17"/>
     <mergeCell ref="P20:R21"/>
     <mergeCell ref="A28:O29"/>
-    <mergeCell ref="A58:O59"/>
-    <mergeCell ref="A92:O93"/>
-    <mergeCell ref="P92:R93"/>
-    <mergeCell ref="A126:O127"/>
-    <mergeCell ref="A146:O147"/>
-    <mergeCell ref="A168:O169"/>
-    <mergeCell ref="A189:O190"/>
-    <mergeCell ref="A208:O209"/>
-    <mergeCell ref="A236:O237"/>
-    <mergeCell ref="P107:R108"/>
-    <mergeCell ref="P111:R112"/>
+    <mergeCell ref="A59:O60"/>
+    <mergeCell ref="A93:O94"/>
+    <mergeCell ref="P93:R94"/>
+    <mergeCell ref="A128:O129"/>
+    <mergeCell ref="A148:O149"/>
+    <mergeCell ref="A170:O171"/>
+    <mergeCell ref="A191:O192"/>
+    <mergeCell ref="A210:O211"/>
+    <mergeCell ref="A238:O239"/>
+    <mergeCell ref="P109:R110"/>
+    <mergeCell ref="P113:R114"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360" activeTab="4"/>
+    <workbookView windowWidth="26385" windowHeight="9045" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -667,6 +667,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -681,46 +718,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,14 +729,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,16 +765,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,7 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,19 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,13 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,12 +917,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -942,6 +924,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +947,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,12 +983,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -995,7 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,16 +1045,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1089,26 +1089,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,34 +1132,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1171,91 +1171,91 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1668,8 +1668,8 @@
   <sheetPr/>
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:O15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6525,7 +6525,7 @@
   <sheetPr/>
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="K76" sqref="K76:L76"/>
     </sheetView>
   </sheetViews>
@@ -9044,8 +9044,8 @@
   <sheetPr/>
   <dimension ref="A1:T292"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105:O105"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="R224" sqref="R224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26385" windowHeight="9045" activeTab="5"/>
+    <workbookView windowWidth="25995" windowHeight="10815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>筛选订单</t>
   </si>
@@ -324,6 +324,18 @@
     <t>跟单员姓名</t>
   </si>
   <si>
+    <t>待审批</t>
+  </si>
+  <si>
+    <t>已拒绝</t>
+  </si>
+  <si>
+    <t>已通过</t>
+  </si>
+  <si>
+    <t>交易完成</t>
+  </si>
+  <si>
     <t>财务A轮审核通过</t>
   </si>
   <si>
@@ -367,6 +379,9 @@
   </si>
   <si>
     <t>1为成功,2为失败,3为库存不足</t>
+  </si>
+  <si>
+    <t>待收货</t>
   </si>
   <si>
     <t>确认发货</t>
@@ -652,7 +667,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,75 +789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,45 +800,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -845,7 +860,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,7 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,19 +926,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,67 +998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,6 +1027,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1045,6 +1069,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1062,53 +1119,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,10 +1135,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,133 +1147,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1668,8 +1683,8 @@
   <sheetPr/>
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4055,10 +4070,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:O16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4971,9 +4986,11 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="P35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
     </row>
     <row r="36" ht="14.25" spans="1:18">
       <c r="A36" s="6"/>
@@ -4991,9 +5008,9 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
     </row>
     <row r="37" ht="14.25" spans="1:18">
       <c r="A37" s="6"/>
@@ -5011,9 +5028,11 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="P37" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
     </row>
     <row r="38" ht="14.25" spans="1:18">
       <c r="A38" s="6"/>
@@ -5031,9 +5050,11 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="P38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="12"/>
     </row>
     <row r="39" ht="14.25" spans="1:18">
       <c r="A39" s="6"/>
@@ -5051,9 +5072,11 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="P39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="12"/>
     </row>
     <row r="40" ht="14.25" spans="1:18">
       <c r="A40" s="6"/>
@@ -5071,112 +5094,44 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:18">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:18">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:18">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:18">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:18">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="P40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="16:18">
+      <c r="P41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="16:18">
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="16:18">
+      <c r="P43" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="16:18">
+      <c r="P44" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="100">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5267,10 +5222,16 @@
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
     <mergeCell ref="P17:R18"/>
     <mergeCell ref="P21:R22"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P41:R42"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5283,7 +5244,7 @@
   <sheetPr/>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -5291,7 +5252,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5354,7 +5315,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5700,7 +5661,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5796,7 +5757,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5859,7 +5820,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6154,7 +6115,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6250,7 +6211,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6313,7 +6274,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6525,18 +6486,19 @@
   <sheetPr/>
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76:L76"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6552,8 +6514,13 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6569,8 +6536,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6596,10 +6566,17 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6625,8 +6602,15 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6650,8 +6634,15 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6671,8 +6662,15 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6692,8 +6690,15 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:15">
+      <c r="P7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:18">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6709,8 +6714,15 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:15">
+      <c r="P8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:18">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6726,8 +6738,15 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:15">
+      <c r="P9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:18">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6743,8 +6762,15 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:15">
+      <c r="P10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:18">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6760,8 +6786,15 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:15">
+      <c r="P11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:18">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6777,8 +6810,15 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:15">
+      <c r="P12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:18">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6794,8 +6834,15 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:15">
+      <c r="P13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:18">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6811,8 +6858,15 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:15">
+      <c r="P14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:18">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6828,8 +6882,11 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:15">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:18">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6845,8 +6902,15 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:15">
+      <c r="P16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:18">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6862,10 +6926,15 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6881,8 +6950,11 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6898,8 +6970,15 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -6925,10 +7004,17 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6954,8 +7040,13 @@
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6979,8 +7070,11 @@
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7000,8 +7094,15 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7021,8 +7122,15 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:15">
+      <c r="P24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:18">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7038,6 +7146,13 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
+      <c r="P25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" s="6"/>
@@ -7175,9 +7290,9 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7193,8 +7308,13 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -7210,8 +7330,11 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -7237,10 +7360,17 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7262,12 +7392,19 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7291,8 +7428,15 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -7312,8 +7456,15 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7333,8 +7484,13 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:15">
+      <c r="P40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:18">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -7350,8 +7506,11 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:15">
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:18">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -7367,8 +7526,15 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:15">
+      <c r="P42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:18">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7384,6 +7550,13 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
+      <c r="P43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12">
+        <v>112</v>
+      </c>
     </row>
     <row r="44" ht="14.25" spans="1:15">
       <c r="A44" s="6"/>
@@ -7540,7 +7713,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -7603,7 +7776,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7981,7 +8154,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8854,27 +9027,40 @@
       <c r="O110" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="178">
+  <mergeCells count="200">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
@@ -8899,19 +9085,23 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="K36:O36"/>
+    <mergeCell ref="P36:Q36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:Q37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:Q38"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="K40:O40"/>
@@ -9033,6 +9223,11 @@
     <mergeCell ref="P72:R73"/>
     <mergeCell ref="P88:R89"/>
     <mergeCell ref="P92:R93"/>
+    <mergeCell ref="P1:R2"/>
+    <mergeCell ref="P17:R18"/>
+    <mergeCell ref="P21:R22"/>
+    <mergeCell ref="P34:R35"/>
+    <mergeCell ref="P40:R41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -9044,8 +9239,8 @@
   <sheetPr/>
   <dimension ref="A1:T292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="R224" sqref="R224"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -9060,7 +9255,7 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9138,7 +9333,7 @@
     </row>
     <row r="4" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -9160,7 +9355,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9220,7 +9415,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
@@ -9243,11 +9438,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -9299,11 +9494,11 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -9327,11 +9522,11 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9355,7 +9550,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -9381,11 +9576,11 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -9409,7 +9604,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
@@ -9536,9 +9731,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" customHeight="1" spans="1:15">
+    <row r="28" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -9554,8 +9749,13 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9571,8 +9771,11 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -9598,10 +9801,17 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-    </row>
-    <row r="31" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A31" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9627,8 +9837,15 @@
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9652,8 +9869,15 @@
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-    </row>
-    <row r="33" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P32" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9677,8 +9901,15 @@
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-    </row>
-    <row r="34" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -9700,8 +9931,13 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-    </row>
-    <row r="35" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -9725,8 +9961,11 @@
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-    </row>
-    <row r="36" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -9746,8 +9985,15 @@
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-    </row>
-    <row r="37" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -9767,6 +10013,13 @@
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
+      <c r="P37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12">
+        <v>112</v>
+      </c>
     </row>
     <row r="38" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A38" s="7"/>
@@ -10020,7 +10273,7 @@
     </row>
     <row r="59" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -10083,7 +10336,7 @@
     </row>
     <row r="62" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -10151,7 +10404,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -10279,11 +10532,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -10300,11 +10553,11 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -10321,11 +10574,11 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -10363,11 +10616,11 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -10618,7 +10871,7 @@
     </row>
     <row r="96" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A96" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -11201,7 +11454,7 @@
     </row>
     <row r="128" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A128" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -11264,7 +11517,7 @@
     </row>
     <row r="131" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A131" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -11360,7 +11613,7 @@
     </row>
     <row r="148" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A148" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -11423,7 +11676,7 @@
     </row>
     <row r="151" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A151" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -11445,7 +11698,7 @@
       </c>
       <c r="L151" s="3"/>
       <c r="M151" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
@@ -11528,7 +11781,7 @@
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -11545,7 +11798,7 @@
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -11585,11 +11838,11 @@
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
@@ -11601,7 +11854,7 @@
     </row>
     <row r="170" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A170" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -11664,7 +11917,7 @@
     </row>
     <row r="173" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A173" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -11760,7 +12013,7 @@
     </row>
     <row r="191" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A191" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -11823,7 +12076,7 @@
     </row>
     <row r="194" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A194" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -11919,7 +12172,7 @@
     </row>
     <row r="210" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A210" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -11982,7 +12235,7 @@
     </row>
     <row r="213" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A213" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -11995,7 +12248,7 @@
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -12004,7 +12257,7 @@
       </c>
       <c r="L213" s="3"/>
       <c r="M213" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
@@ -12073,11 +12326,11 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L216" s="3"/>
       <c r="M216" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
@@ -12093,16 +12346,16 @@
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L217" s="3"/>
       <c r="M217" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
@@ -12119,11 +12372,11 @@
       <c r="I218" s="16"/>
       <c r="J218" s="16"/>
       <c r="K218" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
@@ -12140,11 +12393,11 @@
       <c r="I219" s="16"/>
       <c r="J219" s="16"/>
       <c r="K219" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -12161,11 +12414,11 @@
       <c r="I220" s="16"/>
       <c r="J220" s="16"/>
       <c r="K220" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L220" s="3"/>
       <c r="M220" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
@@ -12182,11 +12435,11 @@
       <c r="I221" s="16"/>
       <c r="J221" s="16"/>
       <c r="K221" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L221" s="3"/>
       <c r="M221" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
@@ -12203,18 +12456,18 @@
       <c r="I222" s="16"/>
       <c r="J222" s="16"/>
       <c r="K222" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L222" s="3"/>
       <c r="M222" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
     </row>
     <row r="238" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A238" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -12277,7 +12530,7 @@
     </row>
     <row r="241" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A241" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -12980,7 +13233,7 @@
       <c r="O292"/>
     </row>
   </sheetData>
-  <mergeCells count="453">
+  <mergeCells count="459">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -13035,19 +13288,23 @@
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="K30:O30"/>
+    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:Q33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="K34:O34"/>
@@ -13434,6 +13691,8 @@
     <mergeCell ref="A238:O239"/>
     <mergeCell ref="P109:R110"/>
     <mergeCell ref="P113:R114"/>
+    <mergeCell ref="P28:R29"/>
+    <mergeCell ref="P34:R35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -13456,7 +13715,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13519,7 +13778,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -13587,11 +13846,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -13624,11 +13883,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13640,7 +13899,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -13703,7 +13962,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -13794,11 +14053,11 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -13815,11 +14074,11 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -13847,7 +14106,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -13910,7 +14169,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -13990,11 +14249,11 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -14006,7 +14265,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -14069,13 +14328,13 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
@@ -14141,11 +14400,11 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25995" windowHeight="10815" activeTab="2"/>
+    <workbookView windowWidth="18855" windowHeight="9705" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -608,10 +608,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -666,45 +666,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,11 +682,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,9 +720,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,48 +788,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,19 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,13 +896,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,84 +968,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1016,7 +980,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,9 +1032,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,6 +1095,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1087,43 +1122,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,10 +1135,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,133 +1147,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4072,13 +4072,14 @@
   <sheetPr/>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -9239,8 +9240,8 @@
   <sheetPr/>
   <dimension ref="A1:T292"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28:R37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -13704,8 +13705,8 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="9705" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="22515" windowHeight="9705" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>筛选订单</t>
   </si>
@@ -309,9 +309,21 @@
     <t>业务员的用户Id</t>
   </si>
   <si>
+    <t>待审批</t>
+  </si>
+  <si>
     <t>/s/listFinanceOrderSelective.action</t>
   </si>
   <si>
+    <t>待付款</t>
+  </si>
+  <si>
+    <t>待收货</t>
+  </si>
+  <si>
+    <t>待财务审核</t>
+  </si>
+  <si>
     <t>merchandiserId</t>
   </si>
   <si>
@@ -324,16 +336,19 @@
     <t>跟单员姓名</t>
   </si>
   <si>
-    <t>待审批</t>
-  </si>
-  <si>
-    <t>已拒绝</t>
-  </si>
-  <si>
-    <t>已通过</t>
-  </si>
-  <si>
-    <t>交易完成</t>
+    <t>财务已拒绝</t>
+  </si>
+  <si>
+    <t>退货成功</t>
+  </si>
+  <si>
+    <t>退货待审批</t>
+  </si>
+  <si>
+    <t>退货待收货</t>
+  </si>
+  <si>
+    <t>待退款</t>
   </si>
   <si>
     <t>财务A轮审核通过</t>
@@ -360,6 +375,18 @@
     <t>/s/updateRefundMoney.action</t>
   </si>
   <si>
+    <t>财务审核通过</t>
+  </si>
+  <si>
+    <t>/s/updateFinancePass.action</t>
+  </si>
+  <si>
+    <t>财务审核不通过</t>
+  </si>
+  <si>
+    <t>/s/updateFinanceFail.action</t>
+  </si>
+  <si>
     <t>跟单确认收到退货</t>
   </si>
   <si>
@@ -379,9 +406,6 @@
   </si>
   <si>
     <t>1为成功,2为失败,3为库存不足</t>
-  </si>
-  <si>
-    <t>待收货</t>
   </si>
   <si>
     <t>确认发货</t>
@@ -608,12 +632,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,10 +684,63 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
-      <color rgb="FFCC7832"/>
-      <name val="Consolas"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -682,6 +759,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -689,8 +774,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,24 +790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,30 +805,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,37 +816,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,7 +878,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,115 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,25 +974,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,41 +1045,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1076,6 +1059,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,9 +1098,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,8 +1140,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,10 +1153,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,133 +1165,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1308,6 +1326,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1317,14 +1338,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1683,7 +1701,7 @@
   <sheetPr/>
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1711,11 +1729,11 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="5"/>
@@ -1733,9 +1751,9 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
@@ -1763,11 +1781,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13">
         <v>90</v>
       </c>
     </row>
@@ -1799,11 +1817,11 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13">
         <v>91</v>
       </c>
     </row>
@@ -1831,11 +1849,11 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13">
         <v>92</v>
       </c>
     </row>
@@ -1863,11 +1881,11 @@
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13">
         <v>101</v>
       </c>
     </row>
@@ -1893,11 +1911,11 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13">
         <v>102</v>
       </c>
     </row>
@@ -1925,11 +1943,11 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13">
         <v>105</v>
       </c>
     </row>
@@ -1957,11 +1975,11 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13">
         <v>106</v>
       </c>
     </row>
@@ -1989,11 +2007,11 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13">
         <v>107</v>
       </c>
     </row>
@@ -2021,11 +2039,11 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13">
         <v>108</v>
       </c>
     </row>
@@ -2053,11 +2071,11 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13">
         <v>120</v>
       </c>
     </row>
@@ -2085,11 +2103,11 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13">
         <v>121</v>
       </c>
     </row>
@@ -2113,11 +2131,11 @@
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13">
         <v>122</v>
       </c>
     </row>
@@ -2141,9 +2159,9 @@
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7"/>
@@ -2165,11 +2183,11 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13">
         <v>123</v>
       </c>
     </row>
@@ -2191,11 +2209,11 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="7"/>
@@ -2217,9 +2235,9 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="7"/>
@@ -2241,11 +2259,11 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12">
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13">
         <v>111</v>
       </c>
     </row>
@@ -2269,11 +2287,11 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12">
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13">
         <v>112</v>
       </c>
     </row>
@@ -2297,11 +2315,11 @@
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7"/>
@@ -2323,9 +2341,9 @@
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="7"/>
@@ -2347,11 +2365,11 @@
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2375,11 +2393,11 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12">
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2399,11 +2417,11 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12">
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13">
         <v>30</v>
       </c>
     </row>
@@ -3003,7 +3021,7 @@
   <sheetPr/>
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35:O35"/>
     </sheetView>
   </sheetViews>
@@ -3212,11 +3230,11 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="5"/>
@@ -3234,9 +3252,9 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
@@ -3264,11 +3282,11 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="12">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13">
         <v>90</v>
       </c>
     </row>
@@ -3300,11 +3318,11 @@
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="12">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13">
         <v>91</v>
       </c>
     </row>
@@ -3332,11 +3350,11 @@
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="12">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13">
         <v>92</v>
       </c>
     </row>
@@ -3364,11 +3382,11 @@
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12">
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13">
         <v>101</v>
       </c>
     </row>
@@ -3394,11 +3412,11 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="12">
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13">
         <v>102</v>
       </c>
     </row>
@@ -3426,11 +3444,11 @@
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="12">
+      <c r="Q28" s="12"/>
+      <c r="R28" s="13">
         <v>105</v>
       </c>
     </row>
@@ -3458,11 +3476,11 @@
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12">
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13">
         <v>106</v>
       </c>
     </row>
@@ -3490,11 +3508,11 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="12">
+      <c r="Q30" s="12"/>
+      <c r="R30" s="13">
         <v>107</v>
       </c>
     </row>
@@ -3522,11 +3540,11 @@
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="12">
+      <c r="Q31" s="12"/>
+      <c r="R31" s="13">
         <v>108</v>
       </c>
     </row>
@@ -3554,11 +3572,11 @@
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="12">
+      <c r="Q32" s="12"/>
+      <c r="R32" s="13">
         <v>120</v>
       </c>
     </row>
@@ -3586,11 +3604,11 @@
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="12">
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13">
         <v>121</v>
       </c>
     </row>
@@ -3618,11 +3636,11 @@
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="12">
+      <c r="Q34" s="12"/>
+      <c r="R34" s="13">
         <v>122</v>
       </c>
     </row>
@@ -3646,9 +3664,9 @@
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="13"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="7"/>
@@ -3670,11 +3688,11 @@
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="12">
+      <c r="Q36" s="12"/>
+      <c r="R36" s="13">
         <v>123</v>
       </c>
     </row>
@@ -3696,11 +3714,11 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="10" t="s">
+      <c r="P37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="7"/>
@@ -3722,9 +3740,9 @@
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="7"/>
@@ -3746,11 +3764,11 @@
       </c>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13">
         <v>111</v>
       </c>
     </row>
@@ -3774,11 +3792,11 @@
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="12" t="s">
+      <c r="P40" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12">
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13">
         <v>112</v>
       </c>
     </row>
@@ -3802,11 +3820,11 @@
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="10" t="s">
+      <c r="P41" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="7"/>
@@ -3828,9 +3846,9 @@
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="7"/>
@@ -3852,11 +3870,11 @@
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="12" t="s">
+      <c r="P43" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12">
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13">
         <v>10</v>
       </c>
     </row>
@@ -3880,11 +3898,11 @@
       </c>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="12" t="s">
+      <c r="P44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12">
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13">
         <v>20</v>
       </c>
     </row>
@@ -3899,11 +3917,11 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12">
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13">
         <v>30</v>
       </c>
     </row>
@@ -4070,10 +4088,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:O10"/>
+      <selection activeCell="P1" sqref="P1:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4100,11 +4118,11 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -4122,9 +4140,9 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
@@ -4152,17 +4170,17 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12">
+      <c r="P3" s="12" t="s">
         <v>90</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4188,12 +4206,12 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12">
-        <v>91</v>
+      <c r="P4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4220,12 +4238,12 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12">
-        <v>92</v>
+      <c r="P5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4252,12 +4270,12 @@
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12">
-        <v>101</v>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4282,12 +4300,12 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12">
-        <v>102</v>
+      <c r="P7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4314,12 +4332,12 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12">
-        <v>105</v>
+      <c r="P8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4346,12 +4364,12 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12">
-        <v>106</v>
+      <c r="P9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4370,20 +4388,20 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12">
-        <v>107</v>
+      <c r="P10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4402,20 +4420,20 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12">
-        <v>108</v>
+      <c r="P11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4442,12 +4460,12 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12">
-        <v>120</v>
+      <c r="P12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4474,12 +4492,12 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12">
-        <v>121</v>
+      <c r="P13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4502,12 +4520,12 @@
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12">
-        <v>122</v>
+      <c r="P14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4530,12 +4548,12 @@
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12">
-        <v>123</v>
+      <c r="P15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4558,9 +4576,13 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="P16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="7"/>
@@ -4582,11 +4604,11 @@
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="7"/>
@@ -4606,9 +4628,9 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="7"/>
@@ -4630,11 +4652,11 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12">
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13">
         <v>111</v>
       </c>
     </row>
@@ -4658,11 +4680,11 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12">
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13">
         <v>112</v>
       </c>
     </row>
@@ -4686,11 +4708,11 @@
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7"/>
@@ -4712,9 +4734,9 @@
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="7"/>
@@ -4736,11 +4758,11 @@
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13">
         <v>10</v>
       </c>
     </row>
@@ -4764,11 +4786,11 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12">
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13">
         <v>20</v>
       </c>
     </row>
@@ -4792,11 +4814,11 @@
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12">
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13">
         <v>30</v>
       </c>
     </row>
@@ -4971,7 +4993,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" ht="14.25" spans="1:18">
+    <row r="35" ht="14.25" spans="1:15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4987,13 +5009,8 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:18">
+    </row>
+    <row r="36" ht="14.25" spans="1:15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5009,11 +5026,8 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:18">
+    </row>
+    <row r="37" ht="14.25" spans="1:15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5029,13 +5043,8 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="12"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:18">
+    </row>
+    <row r="38" ht="14.25" spans="1:15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5051,13 +5060,8 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="12"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:18">
+    </row>
+    <row r="39" ht="14.25" spans="1:15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -5073,13 +5077,8 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:18">
+    </row>
+    <row r="40" ht="14.25" spans="1:15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -5095,44 +5094,9 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="16:18">
-      <c r="P41" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-    </row>
-    <row r="42" spans="16:18">
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-    </row>
-    <row r="43" spans="16:18">
-      <c r="P43" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="16:18">
-      <c r="P44" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="95">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5196,6 +5160,7 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="F18:G18"/>
@@ -5223,16 +5188,10 @@
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
     <mergeCell ref="P17:R18"/>
     <mergeCell ref="P21:R22"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P41:R42"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5243,17 +5202,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5316,7 +5275,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5662,7 +5621,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5758,7 +5717,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5821,7 +5780,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6116,7 +6075,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6212,7 +6171,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6275,7 +6234,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6369,8 +6328,462 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
     </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" ht="14.25" spans="1:15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" ht="14.25" spans="1:15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" ht="14.25" spans="1:15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" ht="14.25" spans="1:15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" ht="14.25" spans="1:15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" ht="14.25" spans="1:15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="105">
+  <mergeCells count="147">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -6471,11 +6884,53 @@
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:O88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:O92"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:O103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:O107"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A19:O20"/>
     <mergeCell ref="A38:O39"/>
     <mergeCell ref="A53:O54"/>
     <mergeCell ref="A70:O71"/>
+    <mergeCell ref="A86:O87"/>
+    <mergeCell ref="A101:O102"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -6487,8 +6942,8 @@
   <sheetPr/>
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:R35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6497,9 +6952,9 @@
     <col min="17" max="17" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6515,13 +6970,8 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6537,11 +6987,8 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6567,17 +7014,10 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6603,15 +7043,8 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6635,15 +7068,8 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6663,15 +7089,8 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6691,15 +7110,8 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:18">
+    </row>
+    <row r="8" ht="14.25" spans="1:15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6715,15 +7127,8 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:18">
+    </row>
+    <row r="9" ht="14.25" spans="1:15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6739,15 +7144,8 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:18">
+    </row>
+    <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6763,15 +7161,8 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:18">
+    </row>
+    <row r="11" ht="14.25" spans="1:15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6787,15 +7178,8 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:18">
+    </row>
+    <row r="12" ht="14.25" spans="1:15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6811,15 +7195,8 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:18">
+    </row>
+    <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6835,15 +7212,8 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:18">
+    </row>
+    <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6859,15 +7229,8 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:18">
+    </row>
+    <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6883,11 +7246,8 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:18">
+    </row>
+    <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6903,15 +7263,8 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:18">
+    </row>
+    <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6927,15 +7280,10 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6951,11 +7299,8 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6971,15 +7316,8 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -7005,17 +7343,10 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7041,13 +7372,8 @@
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7071,11 +7397,8 @@
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:18">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7095,15 +7418,8 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7123,15 +7439,8 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:18">
+    </row>
+    <row r="25" ht="14.25" spans="1:15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7147,13 +7456,6 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12">
-        <v>30</v>
-      </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" s="6"/>
@@ -7291,9 +7593,9 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7309,13 +7611,8 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-    </row>
-    <row r="35" spans="1:18">
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -7331,11 +7628,8 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-    </row>
-    <row r="36" spans="1:18">
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -7361,17 +7655,10 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="12">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7393,19 +7680,12 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="12">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7429,15 +7709,8 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="12">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -7457,15 +7730,8 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="12">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7485,13 +7751,8 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:18">
+    </row>
+    <row r="41" ht="14.25" spans="1:15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -7507,11 +7768,8 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:18">
+    </row>
+    <row r="42" ht="14.25" spans="1:15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -7527,15 +7785,8 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:18">
+    </row>
+    <row r="43" ht="14.25" spans="1:15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7551,13 +7802,6 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
-      <c r="P43" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12">
-        <v>112</v>
-      </c>
     </row>
     <row r="44" ht="14.25" spans="1:15">
       <c r="A44" s="6"/>
@@ -7714,7 +7958,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -7777,7 +8021,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -8093,11 +8337,11 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="10" t="s">
+      <c r="P72" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="1"/>
@@ -8115,9 +8359,9 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2" t="s">
@@ -8145,17 +8389,17 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="12">
+      <c r="P74" s="12" t="s">
         <v>90</v>
+      </c>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8181,12 +8425,12 @@
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="12">
-        <v>91</v>
+      <c r="P75" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="13">
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -8213,12 +8457,12 @@
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="12">
-        <v>92</v>
+      <c r="P76" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="13">
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -8245,12 +8489,12 @@
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="12">
-        <v>101</v>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="13">
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -8275,12 +8519,12 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="12">
-        <v>102</v>
+      <c r="P78" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="13">
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -8307,12 +8551,12 @@
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="12">
-        <v>105</v>
+      <c r="P79" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="13">
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -8339,12 +8583,12 @@
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
-      <c r="P80" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="12">
-        <v>106</v>
+      <c r="P80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="13">
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -8371,12 +8615,12 @@
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="12">
-        <v>107</v>
+      <c r="P81" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="13">
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -8403,12 +8647,12 @@
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
-      <c r="P82" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="12">
-        <v>108</v>
+      <c r="P82" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="13">
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -8435,12 +8679,12 @@
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
-      <c r="P83" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="12">
-        <v>120</v>
+      <c r="P83" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="13">
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -8467,12 +8711,12 @@
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
-      <c r="P84" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="12">
-        <v>121</v>
+      <c r="P84" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="13">
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -8495,12 +8739,12 @@
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="12">
-        <v>122</v>
+      <c r="P85" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="13">
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -8523,9 +8767,13 @@
       </c>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="12"/>
+      <c r="P86" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="13">
+        <v>122</v>
+      </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="7"/>
@@ -8547,11 +8795,11 @@
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="12">
+      <c r="P87" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="13">
         <v>123</v>
       </c>
     </row>
@@ -8573,11 +8821,11 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
-      <c r="P88" s="10" t="s">
+      <c r="P88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="7"/>
@@ -8599,9 +8847,9 @@
       </c>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="7"/>
@@ -8623,11 +8871,11 @@
       </c>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
-      <c r="P90" s="12" t="s">
+      <c r="P90" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12">
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13">
         <v>111</v>
       </c>
     </row>
@@ -8651,11 +8899,11 @@
       </c>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
-      <c r="P91" s="12" t="s">
+      <c r="P91" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12">
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13">
         <v>112</v>
       </c>
     </row>
@@ -8679,11 +8927,11 @@
       </c>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
-      <c r="P92" s="10" t="s">
+      <c r="P92" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="7"/>
@@ -8705,9 +8953,9 @@
       </c>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="7"/>
@@ -8729,11 +8977,11 @@
       </c>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
-      <c r="P94" s="12" t="s">
+      <c r="P94" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12">
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13">
         <v>10</v>
       </c>
     </row>
@@ -8757,11 +9005,11 @@
       </c>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
-      <c r="P95" s="12" t="s">
+      <c r="P95" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12">
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13">
         <v>20</v>
       </c>
     </row>
@@ -8781,11 +9029,11 @@
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
-      <c r="P96" s="12" t="s">
+      <c r="P96" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12">
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13">
         <v>30</v>
       </c>
     </row>
@@ -9028,40 +9276,27 @@
       <c r="O110" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="179">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
@@ -9086,23 +9321,19 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="P36:Q36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:Q37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:Q38"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="K40:O40"/>
@@ -9186,6 +9417,7 @@
     <mergeCell ref="P85:Q85"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="M86:O86"/>
+    <mergeCell ref="P86:Q86"/>
     <mergeCell ref="F87:G87"/>
     <mergeCell ref="H87:J87"/>
     <mergeCell ref="K87:L87"/>
@@ -9224,11 +9456,6 @@
     <mergeCell ref="P72:R73"/>
     <mergeCell ref="P88:R89"/>
     <mergeCell ref="P92:R93"/>
-    <mergeCell ref="P1:R2"/>
-    <mergeCell ref="P17:R18"/>
-    <mergeCell ref="P21:R22"/>
-    <mergeCell ref="P34:R35"/>
-    <mergeCell ref="P40:R41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -9238,10 +9465,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T292"/>
+  <dimension ref="A1:R292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -9254,9 +9481,9 @@
     <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:18">
+    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9272,13 +9499,8 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9294,11 +9516,8 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -9324,17 +9543,10 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="4" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -9356,19 +9568,12 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="5" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9392,15 +9597,8 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="6" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9416,7 +9614,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
@@ -9424,26 +9622,19 @@
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="7" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -9452,15 +9643,8 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="8" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -9480,26 +9664,19 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="9" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -9508,26 +9685,19 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="10" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9536,22 +9706,15 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="11" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -9562,26 +9725,19 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="12" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -9590,22 +9746,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="13" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
@@ -9618,15 +9767,8 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="14" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -9646,95 +9788,10 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P23" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P24" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="28" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -9750,13 +9807,8 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="29" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9772,11 +9824,8 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="30" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -9802,17 +9851,10 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="12">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="31" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A31" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9838,15 +9880,8 @@
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="12">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="32" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9870,15 +9905,8 @@
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="12">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="33" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9902,15 +9930,8 @@
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="12">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="34" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -9932,13 +9953,8 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-    </row>
-    <row r="35" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="35" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -9962,11 +9978,8 @@
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-    </row>
-    <row r="36" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="36" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -9986,15 +9999,8 @@
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" s="6" customFormat="1" customHeight="1" spans="1:18">
+    </row>
+    <row r="37" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -10014,13 +10020,6 @@
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12">
-        <v>112</v>
-      </c>
     </row>
     <row r="38" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A38" s="7"/>
@@ -10274,7 +10273,7 @@
     </row>
     <row r="59" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -10337,7 +10336,7 @@
     </row>
     <row r="62" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -10405,7 +10404,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -10533,11 +10532,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -10554,11 +10553,11 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -10575,11 +10574,11 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -10617,11 +10616,11 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -10771,26 +10770,23 @@
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
     </row>
-    <row r="86" s="6" customFormat="1" customHeight="1" spans="20:20">
-      <c r="T86" s="14"/>
-    </row>
-    <row r="87" s="6" customFormat="1" customHeight="1" spans="20:20">
-      <c r="T87" s="14"/>
-    </row>
-    <row r="88" s="6" customFormat="1" customHeight="1" spans="20:20">
-      <c r="T88" s="14"/>
-    </row>
-    <row r="89" s="6" customFormat="1" customHeight="1" spans="20:20">
-      <c r="T89" s="14"/>
-    </row>
-    <row r="90" s="6" customFormat="1" customHeight="1" spans="20:20">
-      <c r="T90" s="14"/>
-    </row>
-    <row r="91" s="6" customFormat="1" customHeight="1" spans="20:20">
-      <c r="T91" s="14"/>
-    </row>
-    <row r="92" s="6" customFormat="1" customHeight="1" spans="17:17">
-      <c r="Q92" s="15"/>
+    <row r="86" s="6" customFormat="1" customHeight="1" spans="17:17">
+      <c r="Q86" s="14"/>
+    </row>
+    <row r="87" s="6" customFormat="1" customHeight="1" spans="17:17">
+      <c r="Q87" s="14"/>
+    </row>
+    <row r="88" s="6" customFormat="1" customHeight="1" spans="17:17">
+      <c r="Q88" s="14"/>
+    </row>
+    <row r="89" s="6" customFormat="1" customHeight="1" spans="17:17">
+      <c r="Q89" s="14"/>
+    </row>
+    <row r="90" s="6" customFormat="1" customHeight="1" spans="17:17">
+      <c r="Q90" s="14"/>
+    </row>
+    <row r="91" s="6" customFormat="1" customHeight="1" spans="17:17">
+      <c r="Q91" s="14"/>
     </row>
     <row r="93" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A93" s="1" t="s">
@@ -10810,11 +10806,11 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="10" t="s">
+      <c r="P93" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
     </row>
     <row r="94" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A94" s="1"/>
@@ -10832,9 +10828,9 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
-      <c r="R94" s="10"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
     </row>
     <row r="95" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A95" s="2" t="s">
@@ -10862,17 +10858,17 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
-      <c r="P95" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="12">
+      <c r="P95" s="12" t="s">
         <v>90</v>
+      </c>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="96" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A96" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -10898,12 +10894,12 @@
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="12">
-        <v>91</v>
+      <c r="P96" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="13">
+        <v>41</v>
       </c>
     </row>
     <row r="97" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10930,12 +10926,12 @@
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="12">
-        <v>92</v>
+      <c r="P97" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="13">
+        <v>42</v>
       </c>
     </row>
     <row r="98" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10962,12 +10958,12 @@
       </c>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="12">
-        <v>101</v>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="13">
+        <v>43</v>
       </c>
     </row>
     <row r="99" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -10992,12 +10988,12 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
-      <c r="P99" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="12">
-        <v>102</v>
+      <c r="P99" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="13">
+        <v>90</v>
       </c>
     </row>
     <row r="100" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -11024,12 +11020,12 @@
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="12">
-        <v>105</v>
+      <c r="P100" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="13">
+        <v>92</v>
       </c>
     </row>
     <row r="101" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -11056,12 +11052,12 @@
       </c>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="12">
-        <v>106</v>
+      <c r="P101" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="13">
+        <v>101</v>
       </c>
     </row>
     <row r="102" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -11088,12 +11084,12 @@
       </c>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
-      <c r="P102" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="12">
-        <v>107</v>
+      <c r="P102" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="13">
+        <v>102</v>
       </c>
     </row>
     <row r="103" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -11120,12 +11116,12 @@
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-      <c r="P103" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="12">
-        <v>108</v>
+      <c r="P103" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="13">
+        <v>105</v>
       </c>
     </row>
     <row r="104" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -11152,12 +11148,12 @@
       </c>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
-      <c r="P104" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="12">
-        <v>120</v>
+      <c r="P104" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="13">
+        <v>107</v>
       </c>
     </row>
     <row r="105" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -11184,9 +11180,13 @@
       </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="12"/>
+      <c r="P105" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="13">
+        <v>108</v>
+      </c>
     </row>
     <row r="106" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A106" s="7"/>
@@ -11208,12 +11208,12 @@
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
-      <c r="P106" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="12">
-        <v>121</v>
+      <c r="P106" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="13">
+        <v>120</v>
       </c>
     </row>
     <row r="107" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -11234,11 +11234,11 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
-      <c r="P107" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="12">
+      <c r="P107" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="13">
         <v>122</v>
       </c>
     </row>
@@ -11262,11 +11262,11 @@
       </c>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
-      <c r="P108" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="12">
+      <c r="P108" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="13">
         <v>123</v>
       </c>
     </row>
@@ -11290,11 +11290,11 @@
       </c>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
-      <c r="P109" s="10" t="s">
+      <c r="P109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
     </row>
     <row r="110" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A110" s="7"/>
@@ -11316,9 +11316,9 @@
       </c>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="10"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
     </row>
     <row r="111" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A111" s="7"/>
@@ -11340,11 +11340,11 @@
       </c>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
-      <c r="P111" s="12" t="s">
+      <c r="P111" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12">
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13">
         <v>111</v>
       </c>
     </row>
@@ -11368,11 +11368,11 @@
       </c>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
-      <c r="P112" s="12" t="s">
+      <c r="P112" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12">
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13">
         <v>112</v>
       </c>
     </row>
@@ -11396,11 +11396,11 @@
       </c>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
-      <c r="P113" s="10" t="s">
+      <c r="P113" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q113" s="10"/>
-      <c r="R113" s="10"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
     </row>
     <row r="114" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A114" s="7"/>
@@ -11422,72 +11422,72 @@
       </c>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" s="10"/>
-      <c r="R114" s="10"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
     </row>
     <row r="115" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P115" s="12" t="s">
+      <c r="P115" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12">
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="116" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P116" s="12" t="s">
+      <c r="P116" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12">
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="117" s="6" customFormat="1" customHeight="1" spans="16:18">
-      <c r="P117" s="12" t="s">
+      <c r="P117" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12">
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A128" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
-      <c r="O128" s="13"/>
+      <c r="A128" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
     </row>
     <row r="129" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="13"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
     </row>
     <row r="130" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A130" s="2" t="s">
@@ -11518,7 +11518,7 @@
     </row>
     <row r="131" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A131" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="148" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A148" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="151" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A151" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="L151" s="3"/>
       <c r="M151" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -11799,7 +11799,7 @@
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -11839,11 +11839,11 @@
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158" s="9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="170" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A170" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -11918,7 +11918,7 @@
     </row>
     <row r="173" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A173" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -12013,40 +12013,40 @@
       <c r="O176" s="4"/>
     </row>
     <row r="191" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A191" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
+      <c r="A191" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="15"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
     </row>
     <row r="192" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="15"/>
+      <c r="L192" s="15"/>
+      <c r="M192" s="15"/>
+      <c r="N192" s="15"/>
+      <c r="O192" s="15"/>
     </row>
     <row r="193" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A193" s="2" t="s">
@@ -12077,7 +12077,7 @@
     </row>
     <row r="194" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A194" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="210" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A210" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12236,7 +12236,7 @@
     </row>
     <row r="213" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A213" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="L213" s="3"/>
       <c r="M213" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
@@ -12327,11 +12327,11 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L216" s="3"/>
       <c r="M216" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
@@ -12347,16 +12347,16 @@
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L217" s="3"/>
       <c r="M217" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
@@ -12373,11 +12373,11 @@
       <c r="I218" s="16"/>
       <c r="J218" s="16"/>
       <c r="K218" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
@@ -12394,11 +12394,11 @@
       <c r="I219" s="16"/>
       <c r="J219" s="16"/>
       <c r="K219" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -12415,11 +12415,11 @@
       <c r="I220" s="16"/>
       <c r="J220" s="16"/>
       <c r="K220" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L220" s="3"/>
       <c r="M220" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
@@ -12436,11 +12436,11 @@
       <c r="I221" s="16"/>
       <c r="J221" s="16"/>
       <c r="K221" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L221" s="3"/>
       <c r="M221" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
@@ -12457,18 +12457,18 @@
       <c r="I222" s="16"/>
       <c r="J222" s="16"/>
       <c r="K222" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L222" s="3"/>
       <c r="M222" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
     </row>
     <row r="238" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A238" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -12531,7 +12531,7 @@
     </row>
     <row r="241" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A241" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -13234,78 +13234,61 @@
       <c r="O292"/>
     </row>
   </sheetData>
-  <mergeCells count="459">
+  <mergeCells count="438">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="F11:J11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:J13"/>
-    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="K30:O30"/>
-    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:Q33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="K34:O34"/>
@@ -13465,6 +13448,7 @@
     <mergeCell ref="H105:J105"/>
     <mergeCell ref="K105:L105"/>
     <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P105:Q105"/>
     <mergeCell ref="F106:G106"/>
     <mergeCell ref="H106:J106"/>
     <mergeCell ref="K106:L106"/>
@@ -13677,9 +13661,6 @@
     <mergeCell ref="K257:L257"/>
     <mergeCell ref="M257:O257"/>
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="P1:R2"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="P20:R21"/>
     <mergeCell ref="A28:O29"/>
     <mergeCell ref="A59:O60"/>
     <mergeCell ref="A93:O94"/>
@@ -13692,8 +13673,6 @@
     <mergeCell ref="A238:O239"/>
     <mergeCell ref="P109:R110"/>
     <mergeCell ref="P113:R114"/>
-    <mergeCell ref="P28:R29"/>
-    <mergeCell ref="P34:R35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -13705,8 +13684,8 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13716,7 +13695,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13779,7 +13758,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -13847,11 +13826,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -13884,11 +13863,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13900,7 +13879,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -13963,7 +13942,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -14054,11 +14033,11 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -14075,11 +14054,11 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -14107,7 +14086,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -14170,7 +14149,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -14250,11 +14229,11 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -14266,7 +14245,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -14329,13 +14308,13 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
@@ -14401,11 +14380,11 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="22275" windowHeight="9135" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -569,10 +569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -628,16 +628,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,17 +643,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,6 +670,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,16 +706,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,14 +735,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -729,32 +742,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,7 +815,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,30 +935,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -869,13 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,91 +965,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,8 +988,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,21 +1060,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1054,31 +1078,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,10 +1090,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,91 +1102,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,40 +1195,40 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5148,7 +5148,7 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -11361,8 +11361,8 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H63" sqref="H63:J63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22275" windowHeight="9135" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="22290" windowHeight="9135" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -569,10 +569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -636,6 +636,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -643,30 +659,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -681,40 +699,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,25 +721,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,6 +733,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,7 +815,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,37 +923,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,43 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,55 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,80 +982,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1082,6 +1008,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1090,10 +1090,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,91 +1102,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,40 +1195,40 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8368,8 +8368,8 @@
   <sheetPr/>
   <dimension ref="A1:R220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -11361,7 +11361,7 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22290" windowHeight="9135" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="21435" windowHeight="8985" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>筛选订单</t>
   </si>
@@ -201,27 +201,33 @@
     <t>交易成功</t>
   </si>
   <si>
+    <t>buyerMessage</t>
+  </si>
+  <si>
+    <t>买家留言(备注)</t>
+  </si>
+  <si>
+    <t>退货待审批</t>
+  </si>
+  <si>
     <t>orderCount</t>
   </si>
   <si>
     <t>订单总价</t>
   </si>
   <si>
-    <t>退货待审批</t>
+    <t>退货待收货</t>
   </si>
   <si>
     <t>付款状态</t>
   </si>
   <si>
-    <t>退货待收货</t>
+    <t>待退款</t>
   </si>
   <si>
     <t>下单日期</t>
   </si>
   <si>
-    <t>待退款</t>
-  </si>
-  <si>
     <t>orderList(json数组)</t>
   </si>
   <si>
@@ -231,13 +237,16 @@
     <t>规格Id</t>
   </si>
   <si>
+    <t>已付款</t>
+  </si>
+  <si>
     <t>goodsName</t>
   </si>
   <si>
     <t>商品名称</t>
   </si>
   <si>
-    <t>已付款</t>
+    <t>未付款</t>
   </si>
   <si>
     <t>buyNum</t>
@@ -246,7 +255,7 @@
     <t>购买数量</t>
   </si>
   <si>
-    <t>未付款</t>
+    <t>支付方式</t>
   </si>
   <si>
     <t>goodsPrice</t>
@@ -255,22 +264,22 @@
     <t>商品价格</t>
   </si>
   <si>
-    <t>支付方式</t>
-  </si>
-  <si>
     <t>standardName</t>
   </si>
   <si>
     <t>规格名称</t>
   </si>
   <si>
+    <t>转账</t>
+  </si>
+  <si>
     <t>goodsImage</t>
   </si>
   <si>
     <t>商品图片</t>
   </si>
   <si>
-    <t>转账</t>
+    <t>月结</t>
   </si>
   <si>
     <t>refundNum</t>
@@ -279,9 +288,6 @@
     <t>退货数量</t>
   </si>
   <si>
-    <t>月结</t>
-  </si>
-  <si>
     <t>到付</t>
   </si>
   <si>
@@ -312,6 +318,12 @@
     <t>/s/listFinanceOrderSelective.action</t>
   </si>
   <si>
+    <t>departmentId</t>
+  </si>
+  <si>
+    <t>部门Id(选填)</t>
+  </si>
+  <si>
     <t>merchandiserId</t>
   </si>
   <si>
@@ -324,6 +336,36 @@
     <t>跟单员姓名</t>
   </si>
   <si>
+    <t>refundAcceptDate</t>
+  </si>
+  <si>
+    <t>同意退款时间(退货时间)</t>
+  </si>
+  <si>
+    <t>搜索订单</t>
+  </si>
+  <si>
+    <t>/s/listFinanceOrderByKeyword.action</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>freight</t>
+  </si>
+  <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+  </si>
+  <si>
+    <t>/s/getFinanceOrder.action</t>
+  </si>
+  <si>
     <t>财务退款</t>
   </si>
   <si>
@@ -384,21 +426,12 @@
     <t>result</t>
   </si>
   <si>
-    <t>freight</t>
-  </si>
-  <si>
-    <t>运费</t>
-  </si>
-  <si>
     <t>userAddress</t>
   </si>
   <si>
     <t>收货地址</t>
   </si>
   <si>
-    <t>buyerMessage</t>
-  </si>
-  <si>
     <t>买家留言</t>
   </si>
   <si>
@@ -412,9 +445,6 @@
   </si>
   <si>
     <t>goodsNum</t>
-  </si>
-  <si>
-    <t>获取订单详情</t>
   </si>
   <si>
     <t>/user_getMyOrder.action</t>
@@ -569,9 +599,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -623,6 +653,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,29 +773,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -810,6 +840,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,30 +977,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -985,6 +1015,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -996,15 +1050,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,21 +1104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1090,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,91 +1132,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,37 +1228,37 @@
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1636,7 +1666,7 @@
   <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R25"/>
+      <selection activeCell="H11" sqref="F11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2085,16 +2115,16 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="13">
@@ -2102,27 +2132,27 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="13">
@@ -2140,15 +2170,17 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="K17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -2165,12 +2197,10 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="10"/>
@@ -2265,11 +2295,11 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="9" t="s">
         <v>73</v>
       </c>
@@ -2339,24 +2369,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:18">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+    <row r="25" spans="1:18">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="13">
@@ -2601,7 +2635,22 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" ht="14.25" spans="16:18">
+    <row r="40" ht="14.25" spans="1:18">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -2852,7 +2901,7 @@
       <c r="R114" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="97">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -2914,18 +2963,16 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="K18:O18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:L19"/>
@@ -2938,12 +2985,16 @@
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:O21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:O24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
     <mergeCell ref="P17:R18"/>
@@ -2958,10 +3009,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2971,7 +3022,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3034,7 +3085,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3125,7 +3176,7 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -3146,7 +3197,7 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -3231,7 +3282,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3244,7 +3295,7 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -3336,11 +3387,11 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -3595,16 +3646,16 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="13">
@@ -3612,27 +3663,27 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="11"/>
       <c r="R36" s="13">
@@ -3650,15 +3701,17 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="K37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -3675,12 +3728,10 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L38" s="9"/>
-      <c r="M38" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="10"/>
@@ -3749,11 +3800,11 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="9" t="s">
         <v>70</v>
       </c>
@@ -3775,11 +3826,11 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="9" t="s">
         <v>73</v>
       </c>
@@ -3849,19 +3900,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:18">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+    <row r="45" spans="1:18">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
       <c r="P45" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q45" s="13"/>
       <c r="R45" s="13">
@@ -3892,8 +3952,20 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
+    <row r="48" ht="14.25" spans="1:15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="132">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3978,21 +4050,21 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:O34"/>
     <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:O36"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:O37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="K38:O38"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="K39:L39"/>
@@ -4017,6 +4089,10 @@
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:O44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="P21:R22"/>
@@ -4032,10 +4108,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78:O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4124,7 +4200,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4137,7 +4213,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -4229,11 +4305,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -4259,11 +4335,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -4291,11 +4367,11 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -4323,20 +4399,20 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -4355,20 +4431,20 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -4387,11 +4463,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4419,11 +4495,11 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4450,17 +4526,21 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="F14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -4478,22 +4558,22 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="13">
@@ -4506,103 +4586,101 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="13">
-        <v>123</v>
-      </c>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="P17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="13">
+        <v>123</v>
+      </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
+      <c r="K18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13">
-        <v>111</v>
-      </c>
+      <c r="K19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="7"/>
@@ -4615,22 +4693,18 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13">
-        <v>112</v>
-      </c>
+      <c r="K20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="7"/>
@@ -4644,19 +4718,19 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="P21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7"/>
@@ -4670,17 +4744,21 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="P22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13">
+        <v>112</v>
+      </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="7"/>
@@ -4688,27 +4766,25 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13">
-        <v>10</v>
-      </c>
+      <c r="P23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="7"/>
@@ -4716,27 +4792,23 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13">
-        <v>20</v>
-      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="7"/>
@@ -4744,80 +4816,106 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:18">
+    <row r="28" spans="1:15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4833,11 +4931,8 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:18">
+    </row>
+    <row r="30" ht="14.25" spans="1:15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4853,9 +4948,6 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
     </row>
     <row r="31" ht="14.25" spans="1:18">
       <c r="A31" s="6"/>
@@ -4937,7 +5029,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" ht="14.25" spans="1:15">
+    <row r="35" ht="14.25" spans="1:18">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4953,94 +5045,1256 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:15">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:18">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="283">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5096,22 +6350,29 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="F20:G20"/>
@@ -5120,22 +6381,203 @@
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="K21:O21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:O22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:O23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:O24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:O25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:O56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:O78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:O93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:O100"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
-    <mergeCell ref="P17:R18"/>
-    <mergeCell ref="P21:R22"/>
+    <mergeCell ref="P18:R20"/>
+    <mergeCell ref="P23:R24"/>
+    <mergeCell ref="A36:O37"/>
+    <mergeCell ref="A72:O73"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5156,7 +6598,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5219,7 +6661,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5315,7 +6757,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5378,7 +6820,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5610,7 +7052,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5673,7 +7115,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5841,10 +7283,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37:L37"/>
+    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96:J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5855,7 +7297,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5918,7 +7360,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6184,7 +7626,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6247,7 +7689,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6496,7 +7938,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6559,7 +8001,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6581,7 +8023,7 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -6859,7 +8301,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6922,7 +8364,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7300,7 +8742,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7604,11 +9046,11 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -7632,11 +9074,11 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -7660,16 +9102,16 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q86" s="11"/>
       <c r="R86" s="13">
@@ -7677,27 +9119,27 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q87" s="11"/>
       <c r="R87" s="13">
@@ -7715,15 +9157,17 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
+      <c r="K88" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
       <c r="P88" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q88" s="10"/>
       <c r="R88" s="10"/>
@@ -7739,15 +9183,15 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="9" t="s">
+      <c r="K89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
       <c r="R89" s="10"/>
@@ -7763,15 +9207,15 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
+      <c r="K90" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
       <c r="P90" s="13" t="s">
         <v>66</v>
       </c>
@@ -7792,12 +9236,10 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L91" s="9"/>
-      <c r="M91" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="13" t="s">
@@ -7820,11 +9262,11 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L92" s="9"/>
       <c r="M92" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
@@ -7840,17 +9282,17 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L93" s="9"/>
       <c r="M93" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
@@ -7870,11 +9312,11 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L94" s="9"/>
       <c r="M94" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
@@ -7898,11 +9340,11 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L95" s="9"/>
       <c r="M95" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
@@ -7914,24 +9356,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:18">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
+    <row r="96" spans="1:18">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
       <c r="P96" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q96" s="13"/>
       <c r="R96" s="13">
@@ -7941,36 +9387,44 @@
     <row r="97" ht="14.25" spans="1:15">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
     </row>
     <row r="98" ht="14.25" spans="1:15">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
     </row>
     <row r="99" ht="14.25" spans="1:15">
       <c r="A99" s="6"/>
@@ -8159,25 +9613,8 @@
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" ht="14.25" spans="1:15">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="185">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -8319,14 +9756,13 @@
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="M86:O86"/>
     <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="P87:Q87"/>
     <mergeCell ref="F88:G88"/>
     <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:O88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:O88"/>
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="H89:J89"/>
     <mergeCell ref="K89:L89"/>
@@ -8337,18 +9773,25 @@
     <mergeCell ref="M90:O90"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="K91:O91"/>
     <mergeCell ref="F92:G92"/>
     <mergeCell ref="H92:J92"/>
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="M92:O92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:J93"/>
     <mergeCell ref="K93:L93"/>
     <mergeCell ref="M93:O93"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="M94:O94"/>
     <mergeCell ref="K95:L95"/>
     <mergeCell ref="M95:O95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:O98"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A18:O19"/>
     <mergeCell ref="A34:O35"/>
@@ -8366,10 +9809,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R220"/>
+  <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:O63"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -8384,7 +9827,7 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8447,7 +9890,7 @@
     </row>
     <row r="4" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8469,7 +9912,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -8515,7 +9958,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
@@ -8531,11 +9974,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -8573,11 +10016,11 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="8" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -8594,11 +10037,11 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -8615,7 +10058,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -8634,11 +10077,11 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -8655,11 +10098,11 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -8676,11 +10119,11 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -8692,7 +10135,7 @@
     </row>
     <row r="28" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8755,7 +10198,7 @@
     </row>
     <row r="31" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8823,7 +10266,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -8892,7 +10335,7 @@
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -8934,7 +10377,7 @@
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -8951,11 +10394,11 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -8972,11 +10415,11 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -8993,11 +10436,11 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -9014,11 +10457,11 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -9035,11 +10478,11 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -9056,7 +10499,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -9075,11 +10518,11 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
@@ -9096,11 +10539,11 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -9117,11 +10560,11 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -9138,11 +10581,11 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
@@ -9159,11 +10602,11 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
@@ -9180,11 +10623,11 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
@@ -9287,7 +10730,7 @@
     </row>
     <row r="65" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A65" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9591,11 +11034,11 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -9608,22 +11051,22 @@
       </c>
     </row>
     <row r="75" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -9646,15 +11089,17 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
+      <c r="K76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
       <c r="P76" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q76" s="11"/>
       <c r="R76" s="13">
@@ -9673,16 +11118,14 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L77" s="9"/>
-      <c r="M77" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="13">
@@ -9710,7 +11153,7 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
@@ -9773,11 +11216,11 @@
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
       <c r="K81" s="9" t="s">
         <v>73</v>
       </c>
@@ -9845,7 +11288,26 @@
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" s="6" customFormat="1" customHeight="1" spans="16:18">
+    <row r="84" s="6" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
       <c r="P84" s="13" t="s">
         <v>77</v>
       </c>
@@ -9865,34 +11327,17 @@
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="16:18">
       <c r="P86" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q86" s="13"/>
       <c r="R86" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A97" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-    </row>
     <row r="98" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
@@ -9909,82 +11354,74 @@
       <c r="O98" s="14"/>
     </row>
     <row r="99" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+    </row>
+    <row r="100" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2" t="s">
+      <c r="G100" s="2"/>
+      <c r="H100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2" t="s">
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-    </row>
-    <row r="100" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A100" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
     </row>
     <row r="101" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A101" s="3"/>
+      <c r="A101" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F101" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -9996,62 +11433,70 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
+      <c r="K102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
     <row r="103" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
     </row>
-    <row r="117" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A117" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
+    <row r="104" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
     </row>
     <row r="118" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -10068,82 +11513,74 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2" t="s">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2" t="s">
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A120" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
     </row>
     <row r="121" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A121" s="3"/>
+      <c r="A121" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F121" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -10155,35 +11592,39 @@
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
+      <c r="K122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
     </row>
     <row r="123" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
@@ -10197,11 +11638,11 @@
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -10217,13 +11658,15 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
+      <c r="F125" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -10237,12 +11680,10 @@
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="9" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="G126" s="9"/>
-      <c r="H126" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="4"/>
@@ -10258,11 +11699,11 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="9" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -10272,27 +11713,31 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
     </row>
-    <row r="139" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A139" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
+    <row r="128" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
     </row>
     <row r="140" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -10309,82 +11754,74 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A142" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2" t="s">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2" t="s">
+      <c r="G142" s="2"/>
+      <c r="H142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2" t="s">
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-    </row>
-    <row r="142" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A142" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L142" s="3"/>
-      <c r="M142" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N142" s="3"/>
-      <c r="O142" s="3"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
     </row>
     <row r="143" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F143" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L143" s="3"/>
       <c r="M143" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
@@ -10396,62 +11833,70 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
+      <c r="K144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
     </row>
     <row r="145" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="160" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A160" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
+    <row r="146" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
     </row>
     <row r="161" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -10468,82 +11913,74 @@
       <c r="O161" s="1"/>
     </row>
     <row r="162" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A163" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2" t="s">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2" t="s">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2" t="s">
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-    </row>
-    <row r="163" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A163" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3" t="s">
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A164" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F164" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N163" s="3"/>
-      <c r="O163" s="3"/>
-    </row>
-    <row r="164" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L164" s="3"/>
       <c r="M164" s="3" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
@@ -10555,19 +11992,21 @@
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
+      <c r="M165" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
     </row>
@@ -10578,21 +12017,19 @@
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="L166" s="3"/>
-      <c r="M166" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
     </row>
@@ -10603,20 +12040,20 @@
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L167" s="3"/>
       <c r="M167" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
@@ -10627,17 +12064,21 @@
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="15"/>
+      <c r="F168" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L168" s="3"/>
       <c r="M168" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
@@ -10654,11 +12095,11 @@
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
       <c r="K169" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
@@ -10675,11 +12116,11 @@
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
       <c r="K170" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="L170" s="3"/>
       <c r="M170" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
@@ -10696,11 +12137,11 @@
       <c r="I171" s="15"/>
       <c r="J171" s="15"/>
       <c r="K171" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
@@ -10717,31 +12158,35 @@
       <c r="I172" s="15"/>
       <c r="J172" s="15"/>
       <c r="K172" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L172" s="3"/>
       <c r="M172" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="202" customHeight="1" spans="1:15">
-      <c r="A202"/>
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-      <c r="K202"/>
-      <c r="L202"/>
-      <c r="M202"/>
-      <c r="N202"/>
-      <c r="O202"/>
+    <row r="173" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A173" s="15"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
     </row>
     <row r="203" customHeight="1" spans="1:15">
       <c r="A203"/>
@@ -11049,8 +12494,25 @@
       <c r="N220"/>
       <c r="O220"/>
     </row>
+    <row r="221" customHeight="1" spans="1:15">
+      <c r="A221"/>
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="N221"/>
+      <c r="O221"/>
+    </row>
   </sheetData>
-  <mergeCells count="299">
+  <mergeCells count="303">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -11210,12 +12672,12 @@
     <mergeCell ref="P75:Q75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:O76"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="K77:O77"/>
     <mergeCell ref="P77:Q77"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="H78:J78"/>
@@ -11229,21 +12691,21 @@
     <mergeCell ref="H80:J80"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:O80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:J81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="M81:O81"/>
     <mergeCell ref="K82:L82"/>
     <mergeCell ref="M82:O82"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="M83:O83"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:O99"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="A101:D101"/>
     <mergeCell ref="F101:G101"/>
     <mergeCell ref="H101:J101"/>
     <mergeCell ref="K101:L101"/>
@@ -11254,16 +12716,16 @@
     <mergeCell ref="M102:O102"/>
     <mergeCell ref="F103:G103"/>
     <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:O103"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="K119:O119"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:O104"/>
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="F120:G120"/>
     <mergeCell ref="H120:J120"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="K120:O120"/>
+    <mergeCell ref="A121:D121"/>
     <mergeCell ref="F121:G121"/>
     <mergeCell ref="H121:J121"/>
     <mergeCell ref="K121:L121"/>
@@ -11274,27 +12736,27 @@
     <mergeCell ref="M122:O122"/>
     <mergeCell ref="F123:G123"/>
     <mergeCell ref="H123:J123"/>
-    <mergeCell ref="K123:O123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:O123"/>
     <mergeCell ref="F124:G124"/>
     <mergeCell ref="H124:J124"/>
     <mergeCell ref="K124:O124"/>
-    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:J125"/>
     <mergeCell ref="K125:O125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="F126:J126"/>
     <mergeCell ref="K126:O126"/>
     <mergeCell ref="F127:G127"/>
     <mergeCell ref="H127:J127"/>
     <mergeCell ref="K127:O127"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="K141:O141"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="K128:O128"/>
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="F142:G142"/>
     <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="M142:O142"/>
+    <mergeCell ref="K142:O142"/>
+    <mergeCell ref="A143:D143"/>
     <mergeCell ref="F143:G143"/>
     <mergeCell ref="H143:J143"/>
     <mergeCell ref="K143:L143"/>
@@ -11305,31 +12767,33 @@
     <mergeCell ref="M144:O144"/>
     <mergeCell ref="F145:G145"/>
     <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:O145"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="K162:O162"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:O145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="K146:O146"/>
     <mergeCell ref="A163:D163"/>
     <mergeCell ref="F163:G163"/>
     <mergeCell ref="H163:J163"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:O163"/>
+    <mergeCell ref="K163:O163"/>
+    <mergeCell ref="A164:D164"/>
     <mergeCell ref="F164:G164"/>
     <mergeCell ref="H164:J164"/>
     <mergeCell ref="K164:L164"/>
     <mergeCell ref="M164:O164"/>
     <mergeCell ref="F165:G165"/>
     <mergeCell ref="H165:J165"/>
-    <mergeCell ref="K165:O165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:O165"/>
     <mergeCell ref="F166:G166"/>
     <mergeCell ref="H166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:O166"/>
+    <mergeCell ref="K166:O166"/>
     <mergeCell ref="F167:G167"/>
     <mergeCell ref="H167:J167"/>
     <mergeCell ref="K167:L167"/>
     <mergeCell ref="M167:O167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="H168:J168"/>
     <mergeCell ref="K168:L168"/>
     <mergeCell ref="M168:O168"/>
     <mergeCell ref="K169:L169"/>
@@ -11340,16 +12804,18 @@
     <mergeCell ref="M171:O171"/>
     <mergeCell ref="K172:L172"/>
     <mergeCell ref="M172:O172"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M173:O173"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A28:O29"/>
     <mergeCell ref="A62:O63"/>
     <mergeCell ref="P62:R63"/>
-    <mergeCell ref="A97:O98"/>
-    <mergeCell ref="A117:O118"/>
-    <mergeCell ref="A139:O140"/>
-    <mergeCell ref="A160:O161"/>
     <mergeCell ref="P78:R79"/>
     <mergeCell ref="P82:R83"/>
+    <mergeCell ref="A98:O99"/>
+    <mergeCell ref="A118:O119"/>
+    <mergeCell ref="A140:O141"/>
+    <mergeCell ref="A161:O162"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -11372,7 +12838,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11435,7 +12901,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -11448,7 +12914,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -11503,11 +12969,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -11540,11 +13006,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -11556,7 +13022,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -11619,7 +13085,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -11632,7 +13098,7 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -11710,11 +13176,11 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -11731,11 +13197,11 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -11763,7 +13229,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -11826,7 +13292,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -11839,7 +13305,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -11906,11 +13372,11 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -11922,7 +13388,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -11985,20 +13451,20 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -12057,11 +13523,11 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350" activeTab="4"/>
+    <workbookView windowWidth="27120" windowHeight="10350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -621,6 +621,9 @@
     <t>/user_saveOrderProof.action</t>
   </si>
   <si>
+    <t>proofUrl</t>
+  </si>
+  <si>
     <t>图片路径</t>
   </si>
   <si>
@@ -630,19 +633,16 @@
     <t>凭证图片</t>
   </si>
   <si>
+    <t>proofId</t>
+  </si>
+  <si>
+    <t>凭证Id</t>
+  </si>
+  <si>
     <t>获取订单凭证列表</t>
   </si>
   <si>
     <t>/user_listOrderProof.action</t>
-  </si>
-  <si>
-    <t>proofUrl</t>
-  </si>
-  <si>
-    <t>proofId</t>
-  </si>
-  <si>
-    <t>凭证Id</t>
   </si>
   <si>
     <t>删除订单凭证</t>
@@ -665,10 +665,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -719,26 +719,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,6 +741,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -765,8 +757,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,48 +826,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +842,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,19 +905,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +935,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,61 +1013,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,31 +1049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,6 +1075,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1085,16 +1100,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,6 +1131,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1124,31 +1150,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,17 +1172,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1180,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,88 +1195,88 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,40 +1285,40 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10261,7 +10261,7 @@
   <sheetPr/>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H41" sqref="H41:J41"/>
     </sheetView>
   </sheetViews>
@@ -18369,10 +18369,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18512,15 +18512,13 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4"/>
@@ -18537,11 +18535,15 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="M7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4"/>
@@ -18550,24 +18552,45 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -18584,74 +18607,82 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -18663,46 +18694,46 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="K24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="M25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4"/>
@@ -18710,24 +18741,20 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="4"/>
@@ -18741,40 +18768,36 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -18791,74 +18814,82 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -18870,23 +18901,19 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="3"/>
@@ -18894,46 +18921,42 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="F45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -18950,65 +18973,69 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="A60" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -19025,32 +19052,32 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="3"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" s="4"/>
       <c r="H63" s="3" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -19060,29 +19087,8 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="94">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -19098,8 +19104,7 @@
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="K6:O6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
@@ -19108,22 +19113,26 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:O21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="K24:O24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -19132,52 +19141,48 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:O27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:O41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:O42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:O43"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="K44:O44"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:O59"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:O61"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="K62:O62"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:O63"/>
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A20:O21"/>
-    <mergeCell ref="A40:O41"/>
-    <mergeCell ref="A58:O59"/>
+    <mergeCell ref="A19:O20"/>
+    <mergeCell ref="A39:O40"/>
+    <mergeCell ref="A57:O58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350" activeTab="6"/>
+    <workbookView windowWidth="27120" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -665,8 +665,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -718,32 +718,38 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,8 +771,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,6 +782,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,47 +827,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,9 +841,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,7 +905,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +1037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,133 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,6 +1072,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1086,15 +1127,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,28 +1146,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,30 +1172,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1180,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,91 +1192,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,40 +1285,40 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6539,8 +6539,8 @@
   <sheetPr/>
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116:O116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18371,7 +18371,7 @@
   <sheetPr/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8:O8"/>
     </sheetView>
   </sheetViews>

--- a/需求分析/接口文档/客户/订单接口.xlsx
+++ b/需求分析/接口文档/客户/订单接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="21930" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="业务订单(业务)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
   <si>
     <t>筛选订单</t>
   </si>
@@ -366,6 +366,12 @@
     <t>memberId</t>
   </si>
   <si>
+    <t>refundCount</t>
+  </si>
+  <si>
+    <t>退款总额</t>
+  </si>
+  <si>
     <t>获取业务员列表</t>
   </si>
   <si>
@@ -665,10 +671,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -718,38 +724,32 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,9 +771,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,37 +781,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,10 +795,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,8 +846,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,121 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +929,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,19 +1049,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,13 +1081,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,6 +1135,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1116,59 +1170,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,10 +1186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,91 +1198,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,40 +1291,40 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1753,10 +1759,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122:O122"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4504,11 +4510,11 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -4528,11 +4534,11 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -4552,11 +4558,11 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L118" s="4"/>
       <c r="M118" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -4576,11 +4582,11 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -4600,11 +4606,11 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -4618,17 +4624,17 @@
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
       <c r="K121" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -4647,13 +4653,15 @@
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
-      <c r="K122" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L122" s="10"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="10"/>
-      <c r="O122" s="10"/>
+      <c r="K122" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
@@ -4670,12 +4678,10 @@
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L123" s="10"/>
-      <c r="M123" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="6"/>
@@ -4694,11 +4700,11 @@
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L124" s="10"/>
       <c r="M124" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -4718,11 +4724,11 @@
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
@@ -4741,15 +4747,15 @@
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
-      <c r="K126" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="N126" s="20"/>
-      <c r="O126" s="20"/>
+      <c r="K126" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
@@ -4766,11 +4772,11 @@
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L127" s="20"/>
       <c r="M127" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N127" s="20"/>
       <c r="O127" s="20"/>
@@ -4790,11 +4796,11 @@
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L128" s="20"/>
       <c r="M128" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N128" s="20"/>
       <c r="O128" s="20"/>
@@ -4802,7 +4808,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
     </row>
-    <row r="129" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
+    <row r="129" ht="14.25" spans="1:18">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -4814,15 +4820,17 @@
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L129" s="20"/>
       <c r="M129" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N129" s="20"/>
       <c r="O129" s="20"/>
-      <c r="Q129" s="12"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
     </row>
     <row r="130" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
       <c r="A130" s="8"/>
@@ -4836,17 +4844,17 @@
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L130" s="20"/>
       <c r="M130" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N130" s="20"/>
       <c r="O130" s="20"/>
       <c r="Q130" s="12"/>
     </row>
-    <row r="131" ht="14.25" spans="1:18">
+    <row r="131" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -4858,19 +4866,36 @@
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L131" s="20"/>
       <c r="M131" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N131" s="20"/>
       <c r="O131" s="20"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6"/>
-    </row>
-    <row r="132" ht="14.25" spans="16:18">
+      <c r="Q131" s="12"/>
+    </row>
+    <row r="132" ht="14.25" spans="1:18">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
@@ -4895,8 +4920,13 @@
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
     </row>
+    <row r="137" ht="14.25" spans="16:18">
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="319">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5169,29 +5199,29 @@
     <mergeCell ref="H115:J115"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:J116"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="M116:O116"/>
     <mergeCell ref="F117:G117"/>
     <mergeCell ref="H117:J117"/>
     <mergeCell ref="K117:L117"/>
     <mergeCell ref="M117:O117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:J118"/>
     <mergeCell ref="K118:L118"/>
     <mergeCell ref="M118:O118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:J119"/>
     <mergeCell ref="K119:L119"/>
     <mergeCell ref="M119:O119"/>
     <mergeCell ref="F120:G120"/>
     <mergeCell ref="H120:J120"/>
     <mergeCell ref="K120:L120"/>
     <mergeCell ref="M120:O120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:J121"/>
     <mergeCell ref="K121:L121"/>
     <mergeCell ref="M121:O121"/>
-    <mergeCell ref="K122:O122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="K123:O123"/>
     <mergeCell ref="K124:L124"/>
     <mergeCell ref="M124:O124"/>
     <mergeCell ref="K125:L125"/>
@@ -5208,6 +5238,8 @@
     <mergeCell ref="M130:O130"/>
     <mergeCell ref="K131:L131"/>
     <mergeCell ref="M131:O131"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:O132"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
     <mergeCell ref="P17:R18"/>
@@ -5226,7 +5258,7 @@
   <sheetPr/>
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K45" sqref="K45:O45"/>
     </sheetView>
   </sheetViews>
@@ -5237,7 +5269,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5300,7 +5332,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5391,7 +5423,7 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -5412,7 +5444,7 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -5497,7 +5529,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5510,7 +5542,7 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -5606,7 +5638,7 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -6537,10 +6569,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R126"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:J11"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6551,7 +6583,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6629,7 +6661,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6642,7 +6674,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -6734,11 +6766,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6841,7 +6873,7 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -6873,7 +6905,7 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -7703,7 +7735,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7766,7 +7798,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -7779,7 +7811,7 @@
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -7932,7 +7964,7 @@
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -7953,7 +7985,7 @@
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -8469,7 +8501,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -8532,7 +8564,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -8545,7 +8577,7 @@
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -8694,7 +8726,7 @@
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -8715,7 +8747,7 @@
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -8889,22 +8921,22 @@
       <c r="O110" s="4"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
       <c r="J111" s="19"/>
       <c r="K111" s="4" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -8921,11 +8953,11 @@
       <c r="I112" s="19"/>
       <c r="J112" s="19"/>
       <c r="K112" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -8936,17 +8968,17 @@
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
       <c r="K113" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -8963,11 +8995,11 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -8984,11 +9016,11 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -9005,11 +9037,11 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -9025,13 +9057,15 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
-      <c r="O117" s="10"/>
+      <c r="K117" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="8"/>
@@ -9039,18 +9073,16 @@
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
       <c r="K118" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L118" s="10"/>
-      <c r="M118" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
     </row>
@@ -9066,11 +9098,11 @@
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
@@ -9087,11 +9119,11 @@
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -9108,11 +9140,11 @@
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -9129,16 +9161,16 @@
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L122" s="10"/>
       <c r="M122" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
     </row>
-    <row r="123" ht="19.5" spans="1:18">
+    <row r="123" spans="1:15">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -9150,19 +9182,16 @@
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L123" s="10"/>
       <c r="M123" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="12"/>
-      <c r="R123" s="6"/>
-    </row>
-    <row r="124" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
+    </row>
+    <row r="124" ht="19.5" spans="1:18">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -9174,17 +9203,19 @@
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L124" s="10"/>
       <c r="M124" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
+      <c r="P124" s="6"/>
       <c r="Q124" s="12"/>
-    </row>
-    <row r="125" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
+      <c r="R124" s="6"/>
+    </row>
+    <row r="125" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -9196,19 +9227,17 @@
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
-      <c r="P125"/>
-      <c r="Q125"/>
-      <c r="R125"/>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="Q125" s="12"/>
+    </row>
+    <row r="126" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -9220,17 +9249,41 @@
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="323">
+  <mergeCells count="325">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -9511,8 +9564,6 @@
     <mergeCell ref="M111:O111"/>
     <mergeCell ref="K112:L112"/>
     <mergeCell ref="M112:O112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:J113"/>
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="M113:O113"/>
     <mergeCell ref="F114:G114"/>
@@ -9529,9 +9580,11 @@
     <mergeCell ref="M116:O116"/>
     <mergeCell ref="F117:G117"/>
     <mergeCell ref="H117:J117"/>
-    <mergeCell ref="K117:O117"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="K118:O118"/>
     <mergeCell ref="K119:L119"/>
     <mergeCell ref="M119:O119"/>
     <mergeCell ref="K120:L120"/>
@@ -9548,6 +9601,8 @@
     <mergeCell ref="M125:O125"/>
     <mergeCell ref="K126:L126"/>
     <mergeCell ref="M126:O126"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:O127"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
     <mergeCell ref="A46:O47"/>
@@ -9574,7 +9629,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9637,7 +9692,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -9733,7 +9788,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -9796,7 +9851,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10028,7 +10083,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -10091,7 +10146,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10259,10 +10314,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R195"/>
+  <dimension ref="A1:R196"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:J41"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161:O162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10273,7 +10328,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10336,7 +10391,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -10602,7 +10657,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -10665,7 +10720,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10914,7 +10969,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -10977,7 +11032,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -10999,7 +11054,7 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -11298,7 +11353,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -11361,7 +11416,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11739,7 +11794,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -12768,7 +12823,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -12831,7 +12886,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -13534,7 +13589,7 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -13606,7 +13661,7 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -14010,7 +14065,7 @@
       <c r="Q179" s="18"/>
       <c r="R179" s="18"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:18">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -14022,14 +14077,17 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="L180" s="4"/>
       <c r="M180" s="4" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
+      <c r="P180" s="18"/>
+      <c r="Q180" s="18"/>
+      <c r="R180" s="18"/>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="8"/>
@@ -14043,11 +14101,11 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L181" s="4"/>
       <c r="M181" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
@@ -14064,11 +14122,11 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L182" s="4"/>
       <c r="M182" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
@@ -14085,11 +14143,11 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L183" s="4"/>
       <c r="M183" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
@@ -14106,11 +14164,11 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L184" s="4"/>
       <c r="M184" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -14121,17 +14179,17 @@
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
       <c r="K185" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L185" s="4"/>
       <c r="M185" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -14147,13 +14205,15 @@
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
-      <c r="K186" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L186" s="10"/>
-      <c r="M186" s="10"/>
-      <c r="N186" s="10"/>
-      <c r="O186" s="10"/>
+      <c r="K186" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="8"/>
@@ -14167,12 +14227,10 @@
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L187" s="10"/>
-      <c r="M187" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="M187" s="10"/>
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
     </row>
@@ -14188,11 +14246,11 @@
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
       <c r="K188" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L188" s="10"/>
       <c r="M188" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
@@ -14209,11 +14267,11 @@
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
       <c r="K189" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L189" s="10"/>
       <c r="M189" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
@@ -14230,11 +14288,11 @@
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
       <c r="K190" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L190" s="10"/>
       <c r="M190" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
@@ -14251,11 +14309,11 @@
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
       <c r="K191" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L191" s="10"/>
       <c r="M191" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
@@ -14272,16 +14330,16 @@
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
       <c r="K192" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L192" s="10"/>
       <c r="M192" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
     </row>
-    <row r="193" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
+    <row r="193" spans="1:15">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -14293,15 +14351,14 @@
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
       <c r="K193" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L193" s="10"/>
       <c r="M193" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
-      <c r="Q193" s="12"/>
     </row>
     <row r="194" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
       <c r="A194" s="8"/>
@@ -14315,17 +14372,17 @@
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
       <c r="K194" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L194" s="10"/>
       <c r="M194" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
       <c r="Q194" s="12"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -14337,17 +14394,39 @@
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
       <c r="K195" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L195" s="10"/>
       <c r="M195" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
+      <c r="Q195" s="12"/>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="8"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="403">
+  <mergeCells count="405">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -14702,29 +14781,29 @@
     <mergeCell ref="H179:J179"/>
     <mergeCell ref="K179:L179"/>
     <mergeCell ref="M179:O179"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="H180:J180"/>
     <mergeCell ref="K180:L180"/>
     <mergeCell ref="M180:O180"/>
     <mergeCell ref="F181:G181"/>
     <mergeCell ref="H181:J181"/>
     <mergeCell ref="K181:L181"/>
     <mergeCell ref="M181:O181"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="H182:J182"/>
     <mergeCell ref="K182:L182"/>
     <mergeCell ref="M182:O182"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="H183:J183"/>
     <mergeCell ref="K183:L183"/>
     <mergeCell ref="M183:O183"/>
     <mergeCell ref="F184:G184"/>
     <mergeCell ref="H184:J184"/>
     <mergeCell ref="K184:L184"/>
     <mergeCell ref="M184:O184"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="H185:J185"/>
     <mergeCell ref="K185:L185"/>
     <mergeCell ref="M185:O185"/>
-    <mergeCell ref="K186:O186"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:O187"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="K187:O187"/>
     <mergeCell ref="K188:L188"/>
     <mergeCell ref="M188:O188"/>
     <mergeCell ref="K189:L189"/>
@@ -14741,6 +14820,8 @@
     <mergeCell ref="M194:O194"/>
     <mergeCell ref="K195:L195"/>
     <mergeCell ref="M195:O195"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:O196"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A18:O19"/>
     <mergeCell ref="A34:O35"/>
@@ -14760,10 +14841,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R230"/>
+  <dimension ref="A1:R231"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="M101" sqref="K78:O101"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -14778,7 +14859,7 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14850,7 +14931,7 @@
     </row>
     <row r="4" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -14872,7 +14953,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -14924,7 +15005,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
@@ -14995,7 +15076,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -15015,7 +15096,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -15037,11 +15118,11 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -15061,11 +15142,11 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -15085,11 +15166,11 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -15109,7 +15190,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -15131,11 +15212,11 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -15155,7 +15236,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
@@ -15198,7 +15279,7 @@
     </row>
     <row r="31" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -15261,7 +15342,7 @@
     </row>
     <row r="34" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A34" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -15562,11 +15643,11 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -15583,11 +15664,11 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -15598,17 +15679,17 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -15625,11 +15706,11 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -15646,16 +15727,16 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" s="7" customFormat="1" customHeight="1" spans="1:15">
+    <row r="52" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -15667,16 +15748,16 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" customHeight="1" spans="1:15">
+    <row r="53" s="7" customFormat="1" customHeight="1" spans="1:15">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -15687,13 +15768,15 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
+      <c r="K53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
     </row>
     <row r="54" customHeight="1" spans="1:15">
       <c r="A54" s="8"/>
@@ -15707,12 +15790,10 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L54" s="10"/>
-      <c r="M54" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
     </row>
@@ -15728,11 +15809,11 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -15749,16 +15830,16 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
     </row>
-    <row r="57" s="6" customFormat="1" customHeight="1" spans="1:17">
+    <row r="57" customHeight="1" spans="1:15">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -15770,15 +15851,14 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
-      <c r="Q57" s="12"/>
     </row>
     <row r="58" s="6" customFormat="1" customHeight="1" spans="1:17">
       <c r="A58" s="8"/>
@@ -15792,11 +15872,11 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -15814,11 +15894,11 @@
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -15836,29 +15916,36 @@
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="Q60" s="12"/>
     </row>
-    <row r="61" s="6" customFormat="1" customHeight="1" spans="4:17">
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
+    <row r="61" s="6" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
       <c r="Q61" s="12"/>
     </row>
     <row r="62" s="6" customFormat="1" customHeight="1" spans="4:17">
@@ -15966,35 +16053,28 @@
       <c r="O68"/>
       <c r="Q68" s="12"/>
     </row>
-    <row r="69" s="6" customFormat="1" customHeight="1" spans="17:17">
+    <row r="69" s="6" customFormat="1" customHeight="1" spans="4:17">
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
       <c r="Q69" s="12"/>
     </row>
-    <row r="71" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A71" s="1" t="s">
+    <row r="70" s="6" customFormat="1" customHeight="1" spans="17:17">
+      <c r="Q70" s="12"/>
+    </row>
+    <row r="72" s="6" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-    </row>
-    <row r="72" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -16009,110 +16089,100 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="14"/>
+      <c r="P72" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+    </row>
+    <row r="74" s="6" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2" t="s">
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="15" t="s">
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A74" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A75" s="3"/>
+      <c r="A75" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F75" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="16">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16122,59 +16192,61 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
+      <c r="K76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
       <c r="P76" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q76" s="15"/>
       <c r="R76" s="16">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
       <c r="K77" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="M77" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q77" s="15"/>
       <c r="R77" s="16">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16184,29 +16256,27 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="16">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16216,29 +16286,29 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q79" s="15"/>
       <c r="R79" s="16">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16248,29 +16318,29 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="15" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Q80" s="15"/>
       <c r="R80" s="16">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16280,29 +16350,29 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L81" s="4"/>
       <c r="M81" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q81" s="15"/>
       <c r="R81" s="16">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16312,29 +16382,29 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q82" s="15"/>
       <c r="R82" s="16">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16344,29 +16414,29 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q83" s="15"/>
       <c r="R83" s="16">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16375,54 +16445,58 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q84" s="15"/>
       <c r="R84" s="16">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" s="6" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="16">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16437,20 +16511,20 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q86" s="15"/>
       <c r="R86" s="16">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16465,19 +16539,21 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
+      <c r="P87" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="16">
+        <v>123</v>
+      </c>
     </row>
     <row r="88" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A88" s="8"/>
@@ -16491,11 +16567,11 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -16515,21 +16591,17 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
-      <c r="P89" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16">
-        <v>111</v>
-      </c>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A90" s="8"/>
@@ -16543,20 +16615,20 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q90" s="16"/>
       <c r="R90" s="16">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16571,19 +16643,21 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
+      <c r="P91" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16">
+        <v>112</v>
+      </c>
     </row>
     <row r="92" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A92" s="8"/>
@@ -16591,21 +16665,23 @@
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
-      <c r="P92" s="14"/>
+      <c r="P92" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="Q92" s="14"/>
       <c r="R92" s="14"/>
     </row>
@@ -16621,21 +16697,17 @@
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-      <c r="P93" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16">
-        <v>10</v>
-      </c>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
     </row>
     <row r="94" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A94" s="8"/>
@@ -16648,19 +16720,21 @@
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
-      <c r="K94" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
+      <c r="K94" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
       <c r="P94" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q94" s="16"/>
       <c r="R94" s="16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" s="6" customFormat="1" customHeight="1" spans="1:18">
@@ -16675,23 +16749,21 @@
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L95" s="10"/>
-      <c r="M95" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q95" s="16"/>
       <c r="R95" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" s="6" customFormat="1" customHeight="1" spans="1:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" s="6" customFormat="1" customHeight="1" spans="1:18">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -16703,16 +16775,23 @@
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:15">
+      <c r="P96" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -16724,11 +16803,11 @@
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
@@ -16745,11 +16824,11 @@
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -16766,11 +16845,11 @@
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -16787,11 +16866,11 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -16808,36 +16887,40 @@
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L101" s="10"/>
       <c r="M101" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
     </row>
-    <row r="106" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A106" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
+    <row r="102" customHeight="1" spans="1:15">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
     </row>
     <row r="107" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A107" s="13"/>
+      <c r="A107" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -16854,82 +16937,74 @@
       <c r="O107" s="13"/>
     </row>
     <row r="108" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+    </row>
+    <row r="109" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2" t="s">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2" t="s">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2" t="s">
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-    </row>
-    <row r="109" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A109" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
     </row>
     <row r="110" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A110" s="3"/>
+      <c r="A110" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F110" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -16941,62 +17016,70 @@
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
+      <c r="K111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
     </row>
     <row r="112" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
     </row>
-    <row r="126" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A126" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
+    <row r="113" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
     </row>
     <row r="127" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -17013,82 +17096,74 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A129" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2" t="s">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2" t="s">
+      <c r="G129" s="2"/>
+      <c r="H129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2" t="s">
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A129" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
     </row>
     <row r="130" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F130" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L130" s="3"/>
       <c r="M130" s="3" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
@@ -17100,35 +17175,39 @@
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
+      <c r="K131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
     </row>
     <row r="132" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
@@ -17142,11 +17221,11 @@
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -17162,13 +17241,15 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
+      <c r="F134" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
@@ -17182,12 +17263,10 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="10" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="G135" s="10"/>
-      <c r="H135" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="H135" s="10"/>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="4"/>
@@ -17203,11 +17282,11 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="10" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="10" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
@@ -17217,27 +17296,31 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
     </row>
-    <row r="148" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A148" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
+    <row r="137" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
     </row>
     <row r="149" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -17254,82 +17337,74 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2" t="s">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2" t="s">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2" t="s">
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-    </row>
-    <row r="151" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A151" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N151" s="3"/>
-      <c r="O151" s="3"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
     </row>
     <row r="152" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A152" s="3"/>
+      <c r="A152" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F152" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L152" s="3"/>
       <c r="M152" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
@@ -17341,62 +17416,70 @@
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
+      <c r="K153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
     </row>
     <row r="154" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="169" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A169" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
+    <row r="155" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
     </row>
     <row r="170" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -17413,82 +17496,74 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2" t="s">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2" t="s">
+      <c r="G172" s="2"/>
+      <c r="H172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2" t="s">
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-    </row>
-    <row r="172" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A172" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3" t="s">
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+    </row>
+    <row r="173" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A173" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N172" s="3"/>
-      <c r="O172" s="3"/>
-    </row>
-    <row r="173" s="6" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L173" s="3"/>
       <c r="M173" s="3" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
@@ -17500,23 +17575,23 @@
       <c r="D174" s="17"/>
       <c r="E174" s="17"/>
       <c r="F174" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
+      <c r="K174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
     </row>
     <row r="175" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A175" s="17"/>
@@ -17525,21 +17600,23 @@
       <c r="D175" s="17"/>
       <c r="E175" s="17"/>
       <c r="F175" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L175" s="3"/>
-      <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
-      <c r="O175" s="3"/>
+      <c r="K175" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
     </row>
     <row r="176" s="6" customFormat="1" customHeight="1" spans="1:15">
       <c r="A176" s="17"/>
@@ -17548,21 +17625,19 @@
       <c r="D176" s="17"/>
       <c r="E176" s="17"/>
       <c r="F176" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="L176" s="3"/>
-      <c r="M176" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="M176" s="3"/>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
     </row>
@@ -17572,9 +17647,13 @@
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
       <c r="E177" s="17"/>
-      <c r="F177" s="3"/>
+      <c r="F177" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="H177" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3" t="s">
@@ -17593,11 +17672,11 @@
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
       <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
       <c r="K178" s="3" t="s">
         <v>182</v>
       </c>
@@ -17692,22 +17771,26 @@
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="212" customHeight="1" spans="1:15">
-      <c r="A212"/>
-      <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
-      <c r="K212"/>
-      <c r="L212"/>
-      <c r="M212"/>
-      <c r="N212"/>
-      <c r="O212"/>
+    <row r="183" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A183" s="17"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
     </row>
     <row r="213" customHeight="1" spans="1:15">
       <c r="A213"/>
@@ -18014,6 +18097,23 @@
       <c r="M230"/>
       <c r="N230"/>
       <c r="O230"/>
+    </row>
+    <row r="231" customHeight="1" spans="1:15">
+      <c r="A231"/>
+      <c r="B231"/>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+      <c r="K231"/>
+      <c r="L231"/>
+      <c r="M231"/>
+      <c r="N231"/>
+      <c r="O231"/>
     </row>
   </sheetData>
   <mergeCells count="343">
@@ -18102,14 +18202,14 @@
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:O46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M47:O47"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="M48:O48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:O49"/>
     <mergeCell ref="K50:L50"/>
@@ -18118,9 +18218,9 @@
     <mergeCell ref="M51:O51"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:O52"/>
-    <mergeCell ref="K53:O53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="K54:O54"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:O55"/>
     <mergeCell ref="K56:L56"/>
@@ -18133,17 +18233,14 @@
     <mergeCell ref="M59:O59"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:O73"/>
-    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:O61"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="K74:O74"/>
     <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="K75:L75"/>
@@ -18156,12 +18253,12 @@
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:O77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:O77"/>
     <mergeCell ref="P77:Q77"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="K78:O78"/>
     <mergeCell ref="P78:Q78"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="H79:J79"/>
@@ -18207,27 +18304,28 @@
     <mergeCell ref="H87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="M87:O87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="P87:Q87"/>
     <mergeCell ref="K88:L88"/>
     <mergeCell ref="M88:O88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:J89"/>
     <mergeCell ref="K89:L89"/>
     <mergeCell ref="M89:O89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:J90"/>
     <mergeCell ref="K90:L90"/>
     <mergeCell ref="M90:O90"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="H91:J91"/>
     <mergeCell ref="K91:L91"/>
     <mergeCell ref="M91:O91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="M92:O92"/>
     <mergeCell ref="K93:L93"/>
     <mergeCell ref="M93:O93"/>
-    <mergeCell ref="K94:O94"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="K95:O95"/>
     <mergeCell ref="K96:L96"/>
     <mergeCell ref="M96:O96"/>
     <mergeCell ref="K97:L97"/>
@@ -18240,15 +18338,13 @@
     <mergeCell ref="M100:O100"/>
     <mergeCell ref="K101:L101"/>
     <mergeCell ref="M101:O101"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:O108"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:O102"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="F109:G109"/>
     <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="A110:D110"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
     <mergeCell ref="K110:L110"/>
@@ -18259,16 +18355,16 @@
     <mergeCell ref="M111:O111"/>
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K112:O112"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="K128:O128"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:O113"/>
     <mergeCell ref="A129:D129"/>
     <mergeCell ref="F129:G129"/>
     <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="K129:O129"/>
+    <mergeCell ref="A130:D130"/>
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="H130:J130"/>
     <mergeCell ref="K130:L130"/>
@@ -18279,27 +18375,27 @@
     <mergeCell ref="M131:O131"/>
     <mergeCell ref="F132:G132"/>
     <mergeCell ref="H132:J132"/>
-    <mergeCell ref="K132:O132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:O132"/>
     <mergeCell ref="F133:G133"/>
     <mergeCell ref="H133:J133"/>
     <mergeCell ref="K133:O133"/>
-    <mergeCell ref="F134:J134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="H134:J134"/>
     <mergeCell ref="K134:O134"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="F135:J135"/>
     <mergeCell ref="K135:O135"/>
     <mergeCell ref="F136:G136"/>
     <mergeCell ref="H136:J136"/>
     <mergeCell ref="K136:O136"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:O150"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="K137:O137"/>
     <mergeCell ref="A151:D151"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="K151:O151"/>
+    <mergeCell ref="A152:D152"/>
     <mergeCell ref="F152:G152"/>
     <mergeCell ref="H152:J152"/>
     <mergeCell ref="K152:L152"/>
@@ -18310,16 +18406,16 @@
     <mergeCell ref="M153:O153"/>
     <mergeCell ref="F154:G154"/>
     <mergeCell ref="H154:J154"/>
-    <mergeCell ref="K154:O154"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="H171:J171"/>
-    <mergeCell ref="K171:O171"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:O154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="K155:O155"/>
     <mergeCell ref="A172:D172"/>
     <mergeCell ref="F172:G172"/>
     <mergeCell ref="H172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:O172"/>
+    <mergeCell ref="K172:O172"/>
+    <mergeCell ref="A173:D173"/>
     <mergeCell ref="F173:G173"/>
     <mergeCell ref="H173:J173"/>
     <mergeCell ref="K173:L173"/>
@@ -18330,15 +18426,17 @@
     <mergeCell ref="M174:O174"/>
     <mergeCell ref="F175:G175"/>
     <mergeCell ref="H175:J175"/>
-    <mergeCell ref="K175:O175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:O175"/>
     <mergeCell ref="F176:G176"/>
     <mergeCell ref="H176:J176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="K176:O176"/>
     <mergeCell ref="F177:G177"/>
     <mergeCell ref="H177:J177"/>
     <mergeCell ref="K177:L177"/>
     <mergeCell ref="M177:O177"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="H178:J178"/>
     <mergeCell ref="K178:L178"/>
     <mergeCell ref="M178:O178"/>
     <mergeCell ref="K179:L179"/>
@@ -18349,17 +18447,19 @@
     <mergeCell ref="M181:O181"/>
     <mergeCell ref="K182:L182"/>
     <mergeCell ref="M182:O182"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:O183"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A31:O32"/>
     <mergeCell ref="P1:R17"/>
-    <mergeCell ref="P87:R88"/>
-    <mergeCell ref="A71:O72"/>
-    <mergeCell ref="P71:R72"/>
-    <mergeCell ref="P91:R92"/>
-    <mergeCell ref="A106:O107"/>
-    <mergeCell ref="A126:O127"/>
-    <mergeCell ref="A148:O149"/>
-    <mergeCell ref="A169:O170"/>
+    <mergeCell ref="P92:R93"/>
+    <mergeCell ref="A107:O108"/>
+    <mergeCell ref="A127:O128"/>
+    <mergeCell ref="A149:O150"/>
+    <mergeCell ref="A170:O171"/>
+    <mergeCell ref="A72:O73"/>
+    <mergeCell ref="P72:R73"/>
+    <mergeCell ref="P88:R89"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -18372,7 +18472,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:O8"/>
+      <selection activeCell="H27" sqref="H27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18382,7 +18482,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -18445,7 +18545,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -18458,7 +18558,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -18536,11 +18636,11 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -18552,27 +18652,27 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -18635,7 +18735,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -18648,7 +18748,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -18726,11 +18826,11 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -18747,11 +18847,11 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -18779,7 +18879,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -18842,7 +18942,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -18855,7 +18955,7 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -18922,11 +19022,11 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -18938,7 +19038,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -19001,20 +19101,20 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -19073,11 +19173,11 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
